--- a/data/genius_Bushido_Electro-ghetto.xlsx
+++ b/data/genius_Bushido_Electro-ghetto.xlsx
@@ -407,7 +407,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Songtext zu „Intro (Electro Ghetto)“][Intro]„Ihr habt sehr vieles gesehen.“„Das ist wahr.“„Und Ihr fürchtet nicht den Tod. Manchmal wünscht Ihr ihn Euch sogar. Ist es nicht so?“„Ja.“„Ich mir auch. Das passiert den Männern, die gesehen haben, was wir gesehen haben. Und dann komme ich immer hierher, an den Ort meiner Vorfahren und mache mir bewusst, dass wir alle sterben. Wie diese Blüten. Und dass das Leben in jedem Atemzug steckt, in jeder Tasse Tee, in jedem Leben, das wir auslöschen. Der Weg des Kriegers.“„Leben in jedem Atemzug.“„Das ist Bushido.“[Part]Halt die Luft an, denn mein Album ist daGuck, wegen mir braucht die Szene nur ein Album im Jahr(Mein Album so hart) dass alles andere einfach verglühtDein Album, das dir zeigt, der Typ in der Bravo, der lügt(Mein Album erscheint) und zieht euch alle mit ins DunkelDieses Album reicht locker für euch siebzehn KumpelDieses Album ist kein netter VergleichDieses Album zeigt euch nur: Eure Rapper sind gleichIch bin wieder zurückUnd sie sagen schon wieder, ich wär' wieder verrücktIch bin wieder im HoodUnd wieder mal mach' ich alle eure Lieder kaputtIch bin wieder zurückUnd sie sagen schon wieder, ich wär' wieder verrücktIch bin wieder im HoodUnd wieder mal mach' ich alle eure Lieder kaputt</t>
+          <t>[Songtext zu „Intro (Electro Ghetto)“]
+[Intro]„Ihr habt sehr vieles gesehen.“„Das ist wahr.“„Und Ihr fürchtet nicht den Tod. Manchmal wünscht Ihr ihn Euch sogar. Ist es nicht so?“„Ja.“„Ich mir auch. Das passiert den Männern, die gesehen haben, was wir gesehen haben. Und dann komme ich immer hierher, an den Ort meiner Vorfahren und mache mir bewusst, dass wir alle sterben. Wie diese Blüten. Und dass das Leben in jedem Atemzug steckt, in jeder Tasse Tee, in jedem Leben, das wir auslöschen. Der Weg des Kriegers.“„Leben in jedem Atemzug.“„Das ist Bushido.“
+[Part]
+Halt die Luft an, denn mein Album ist da
+Guck, wegen mir braucht die Szene nur ein Album im Jahr
+(Mein Album so hart) dass alles andere einfach verglüht
+Dein Album, das dir zeigt, der Typ in der Bravo, der lügt
+(Mein Album erscheint) und zieht euch alle mit ins Dunkel
+Dieses Album reicht locker für euch siebzehn Kumpel
+Dieses Album ist kein netter Vergleich
+Dieses Album zeigt euch nur: Eure Rapper sind gleich
+Ich bin wieder zurück
+Und sie sagen schon wieder, ich wär' wieder verrückt
+Ich bin wieder im Hood
+Und wieder mal mach' ich alle eure Lieder kaputt
+Ich bin wieder zurück
+Und sie sagen schon wieder, ich wär' wieder verrückt
+Ich bin wieder im Hood
+Und wieder mal mach' ich alle eure Lieder kaputt</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -459,10 +477,93 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Songtext zu „Electro Ghetto“][Hook]Ich mach den Sound für den Hof im KnastIch bin der Grund, warum du nie deine Millionen machstIch hab den Sound, den Sound für die Dealer im ParkDenn ohne mich wird Deutscher Rap schon wieder nicht hartSchon wieder ein Tag, an dem ich eure Lieder nicht magSalutiert, steht stramm, ich bin der Leader wie AMir scheißegal, ob du ein Krasser warstEs tut mir leid Jungs, ich hab keinen Platz im Arsch[Part 1]Guckt mir zu, wie ich jeden deiner Homies erschießDenn meine Stimme macht jetzt bei Nacht Terror im KiezWir sind die New Kids on the BlockMach die Augen auf, hol mir deine Mama her, du Bitch ohne JobIch bin Berliner, geh zu Blumentopf, du ObsthändlerNimm deine neuen Tracks und schenk sie deinen GroßelternDenn mein Beat knallt und ihr seid obdachlosIch bin ein Ersguterjunge und ihr Opfer totIch kam vom Bordstein und bin jetzt an der SkylineJedes meiner Wörter wird für euch Kids zum HighlightIhr wollt Freiheit? Ihr kriegt ein AutogrammWas guckst du meine Tätowierung und mein Auto an?Ihr habt so etwas im Leben nie gesehenIhr seid stockschwul und euch Pennern fehlen die IdeenIch hab nur ein Team, ich hab nur ein ZielKeiner von euch wird mich los, ich hab jetzt ein'n Deal
-[Hook]Ich mach den Sound für den Hof im KnastIch bin der Grund, warum du nie deine Millionen machstIch hab den Sound, den Sound für die Dealer im ParkDenn ohne mich wird Deutscher Rap schon wieder nicht hartSchon wieder ein Tag, an dem ich eure Lieder nicht magSalutiert, steht stramm, ich bin der Leader wie AMir scheißegal, ob du ein Krasser warstEs tut mir leid Jungs, ich hab keinen Platz im Arsch[Part 2]Ich bin der Leader wie Saad, ein Berliner bleibt hartIch zahle bar für den 7er und du least dir 'n SmartIch hab den sechsten Sinn, du bist zu lieb, du GayIch geh vom Label weg und ihr drei seid jetzt B2KFür mich bist du nur ein RheumapatientUnd Neffi macht, dass mich morgen jeder Deutsche dann kenntFreu dich du Hemd, zeig mir deine lila PatronenUnd ihr wisst alle, dass in mein'm Bezirk die Dealer da wohnen (Wie krass)Ich verkauf euch kranke GedankenVon mir aus kannst du kommen, komm mit deinen ganzen VerwandtenIch geb dir eine von links, geb dir eine von rechtsIch zeig dir mein'n Cover und du merkst wie peinlich du rappstDu peinlicher Depp, renn weg, wenn der König erscheintIhr seid nur Kakerlaken, guck hier der Phoenix er scheintIch hab wenig Zeit für Smalltalk mit NuttenHör Ersguterjunge, wie wir Kugeln in euch reinspucken
-[Hook]Ich mach den Sound für den Hof im KnastIch bin der Grund, warum du nie deine Millionen machstIch hab den Sound, den Sound für die Dealer im ParkDenn ohne mich wird Deutscher Rap schon wieder nicht hartSchon wieder ein Tag, an dem ich eure Lieder nicht magSalutiert, steht stramm, ich bin der Leader wie AMir scheißegal, ob du ein Krasser warstEs tut mir leid Jungs, ich hab keinen Platz im Arsch[Part 3]Ich hab jetzt Streit mit dem? Ich hab Streit mit wem?Ich bin jetzt 26 Jahre und gemein wie 10Kein Problem, meine Jungs bumsen euch alleDenn mir ist scheißegal, ob ich euch Tunten gefalleIhr könnt mich gern haben und auch gern fragenUnd ich sag euch immer wieder, ihr könnt gern bei Bernd blasenIch mach kein'n Deutschrap, ich pumpe KerosinKommt mich besuchen, ich verkauf mit Kumpels HeroinMach mein Logo nach, ich mach dich Homo armGuck dir mein Bling Bling an, wenn wir auf Promo fahr'nIch bin ein Prototyp, du kannst nich' werden wie ichWenn ich eure Fressen sehen muss, nerven sie michIch bin ein Pitbull, Rap ist mein KampfsportDu hörst erst Raptile, Flowin Immo, dann TorchEs ist Elektro Ghetto Rap mit DreitagebartUm die Szene zu ficken, brauch ich kein'n Bodyguard
-[Hook]Ich mach den Sound für den Hof im KnastIch bin der Grund, warum du nie deine Millionen machstIch hab den Sound, den Sound für die Dealer im ParkDenn ohne mich wird Deutscher Rap schon wieder nicht hartSchon wieder ein Tag, an dem ich eure Lieder nicht magSalutiert, steht stramm, ich bin der Leader wie AMir scheißegal, ob du ein Krasser warstEs tut mir leid Jungs, ich hab keinen Platz im Arsch</t>
+          <t>[Songtext zu „Electro Ghetto“]
+[Hook]
+Ich mach den Sound für den Hof im Knast
+Ich bin der Grund, warum du nie deine Millionen machst
+Ich hab den Sound, den Sound für die Dealer im Park
+Denn ohne mich wird Deutscher Rap schon wieder nicht hart
+Schon wieder ein Tag, an dem ich eure Lieder nicht mag
+Salutiert, steht stramm, ich bin der Leader wie A
+Mir scheißegal, ob du ein Krasser warst
+Es tut mir leid Jungs, ich hab keinen Platz im Arsch
+[Part 1]
+Guckt mir zu, wie ich jeden deiner Homies erschieß
+Denn meine Stimme macht jetzt bei Nacht Terror im Kiez
+Wir sind die New Kids on the Block
+Mach die Augen auf, hol mir deine Mama her, du Bitch ohne Job
+Ich bin Berliner, geh zu Blumentopf, du Obsthändler
+Nimm deine neuen Tracks und schenk sie deinen Großeltern
+Denn mein Beat knallt und ihr seid obdachlos
+Ich bin ein Ersguterjungeund ihr Opfer tot
+Ich kam vom Bordstein und bin jetzt an der Skyline
+Jedes meiner Wörter wird für euch Kids zum Highlight
+Ihr wollt Freiheit? Ihr kriegt ein Autogramm
+Was guckst du meine Tätowierung und mein Auto an?
+Ihr habt so etwas im Leben nie gesehen
+Ihr seid stockschwul und euch Pennern fehlen die Ideen
+Ich hab nur ein Team, ich hab nur ein Ziel
+Keiner von euch wird mich los, ich hab jetzt ein'n Deal
+[Hook]
+Ich mach den Sound für den Hof im Knast
+Ich bin der Grund, warum du nie deine Millionen machst
+Ich hab den Sound, den Sound für die Dealer im Park
+Denn ohne mich wird Deutscher Rap schon wieder nicht hart
+Schon wieder ein Tag, an dem ich eure Lieder nicht mag
+Salutiert, steht stramm, ich bin der Leader wie A
+Mir scheißegal, ob du ein Krasser warst
+Es tut mir leid Jungs, ich hab keinen Platz im Arsch
+[Part 2]
+Ich bin der Leader wie Saad, ein Berliner bleibt hart
+Ich zahle bar für den 7er und du least dir 'n Smart
+Ich hab den sechsten Sinn, du bist zu lieb, du Gay
+Ich geh vom Label weg und ihr drei seid jetzt B2K
+Für mich bist du nur ein Rheumapatient
+Und Neffi macht, dass mich morgen jeder Deutsche dann kennt
+Freu dich du Hemd, zeig mir deine lila Patronen
+Und ihr wisst alle, dass in mein'm Bezirk die Dealer da wohnen (Wie krass)
+Ich verkauf euch kranke Gedanken
+Von mir aus kannst du kommen, komm mit deinen ganzen Verwandten
+Ich geb dir eine von links, geb dir eine von rechts
+Ich zeig dir mein'n Cover und du merkst wie peinlich du rappst
+Du peinlicher Depp, renn weg, wenn der König erscheint
+Ihr seid nur Kakerlaken,guck hier der Phoenix er scheint
+Ich hab wenig Zeit für Smalltalk mit Nutten
+Hör Ersguterjunge, wie wir Kugeln in euch reinspucken
+[Hook]
+Ich mach den Sound für den Hof im Knast
+Ich bin der Grund, warum du nie deine Millionen machst
+Ich hab den Sound, den Sound für die Dealer im Park
+Denn ohne mich wird Deutscher Rap schon wieder nicht hart
+Schon wieder ein Tag, an dem ich eure Lieder nicht mag
+Salutiert, steht stramm, ich bin der Leader wie A
+Mir scheißegal, ob du ein Krasser warst
+Es tut mir leid Jungs, ich hab keinen Platz im Arsch
+[Part 3]
+Ich hab jetzt Streit mit dem? Ich hab Streit mit wem?
+Ich bin jetzt 26 Jahre und gemein wie 10
+Kein Problem, meine Jungs bumsen euch alle
+Denn mir ist scheißegal, ob ich euch Tunten gefalle
+Ihr könnt mich gern haben und auch gern fragen
+Und ich sag euch immer wieder, ihr könnt gern bei Bernd blasen
+Ich mach kein'n Deutschrap, ich pumpe Kerosin
+Kommt mich besuchen, ich verkauf mit Kumpels Heroin
+Mach mein Logo nach, ich mach dich Homo arm
+Guck dir mein Bling Bling an, wenn wir auf Promo fahr'n
+Ich bin ein Prototyp, du kannst nich' werden wie ichWenn ich eure Fressen sehen muss, nerven sie mich
+Ich bin ein Pitbull, Rap ist mein Kampfsport
+Du hörst erst Raptile, Flowin Immo, dann Torch
+Es ist Elektro Ghetto Rap mit Dreitagebart
+Um die Szene zu ficken, brauch ich kein'n Bodyguard
+[Hook]
+Ich mach den Sound für den Hof im Knast
+Ich bin der Grund, warum du nie deine Millionen machst
+Ich hab den Sound, den Sound für die Dealer im Park
+Denn ohne mich wird Deutscher Rap schon wieder nicht hart
+Schon wieder ein Tag, an dem ich eure Lieder nicht mag
+Salutiert, steht stramm, ich bin der Leader wie A
+Mir scheißegal, ob du ein Krasser warst
+Es tut mir leid Jungs, ich hab keinen Platz im Arsch</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -514,9 +615,70 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Songtext zu „Kopf Hoch“][Hook]Kopf hoch, denn morgen ist ein neuer TagKopf hoch, Jungs, morgen ist nicht euer TagIch mach es klar, dass die Sonne und der Mond scheintWenn ich will, mach ich, dass die Sonne und der Mond weintGuckt mich an, ich mach den Rap von der StraßeKeiner von euch kriegt mich weg von der StraßeIch fühl mich wohl in dieser Hölle aus BetonBis jetzt ist noch niemand aus dieser Hölle rausgekomm'[Part 1]Hörst du die Straße wie sie spricht?Ich bin das Thema Nummer einsHörst du deine Nase wie sie bricht?Du kannst Kleeblätter suchen um dir dann Glück zu wünschenRuf Get the Clip an um dir das Stück zu wünschenIch krempel deine deutsche Rapszene umDenn für mich ist deine deutsche Rapszene dummIn Wirklichkeit seid ihr nur einfache JungsDas sind meine Freunde, seht ihr, ihr seid einfach gebumstIch hör die Kids rufen „Endlich ist er wieder da“Wie mich die Kids suchen, weil der Typ bei VIVA warEr war bei MTV, trotzdem bleibt er hier bei euchIch bin ein Vorbild geworden mit 'ner Vier in DeutschDas ganze Land spürt das Beben in mirAlle eure Alpträume leben in mirSie sehen in mir den Typen der sie so gerne wär'nSie schneiden sich die Arme auf um meine Strophe zu lernenAlso
-[Hook]Kopf hoch, denn morgen ist ein neuer TagKopf hoch, Jungs, morgen ist nicht euer TagIch mach es klar, dass die Sonne und der Mond scheintWenn ich will, mach ich, dass die Sonne und der Mond weintGuckt mich an, ich mach den Rap von der StraßeKeiner von euch kriegt mich weg von der StraßeIch fühl mich wohl in dieser Hölle aus BetonBis jetzt ist noch niemand aus dieser Hölle rausgekomm'[Part 2]Es gibt nur einen wie michIhr könnt zum Jupiter fliegen, auch dort gibt es keinen wie michHör dir diesen Track an und du fühlst, wer auf der Straße stehtStellt euch vor, ich bin der Typ der auf der Straße lebtDer die Straße liebt, denn ich bin ein StraßenkindIch will kein Star sein wir sind Jungs die auf den Straßen sindWir atmen Smog ein, atmen ausJeder der hier lebt, will nie wieder aus dem Block rausWenn du uns suchst wir sind Steinmetz im SpätkaufIch mach nur einen Take und ganz Deutschland steht draufIch bin der neue Trend kauf mir n' neuen BenzDie ganze Szene ist voll mit meinen treuen FansIch bin nicht scharf auf ein lila CoupéIch hätt viel lieber nen VIVA CometIch bring mein Album raus und krieg dafür den GrimmepreisIhr könnt alle kommen, weil ich locker auf euer Viertel scheiß
-[Hook]Kopf hoch, denn morgen ist ein neuer TagKopf hoch, Jungs, morgen ist nicht euer TagIch mach es klar, dass die Sonne und der Mond scheintWenn ich will, mach ich, dass die Sonne und der Mond weintGuckt mich an, ich mach den Rap von der StraßeKeiner von euch kriegt mich weg von der StraßeIch fühl mich wohl in dieser Hölle aus BetonBis jetzt ist noch niemand aus dieser Hölle rausgekomm'</t>
+          <t>[Songtext zu „Kopf Hoch“]
+[Hook]
+Kopf hoch, denn morgen ist ein neuer Tag
+Kopf hoch, Jungs, morgen ist nicht euer Tag
+Ich mach es klar, dass die Sonne und der Mond scheint
+Wenn ich will, mach ich, dass die Sonne und der Mond weint
+Guckt mich an, ich mach den Rap von der Straße
+Keiner von euch kriegt mich weg von der Straße
+Ich fühl mich wohl in dieser Hölle aus Beton
+Bis jetzt ist noch niemand aus dieser Hölle rausgekomm'
+[Part 1]
+Hörst du die Straße wie sie spricht?
+Ich bin das Thema Nummer eins
+Hörst du deine Nase wie sie bricht?
+Du kannst Kleeblätter suchen um dir dann Glück zu wünschen
+Ruf Get the Clip an um dir das Stück zu wünschen
+Ich krempel deine deutsche Rapszene um
+Denn für mich ist deine deutsche Rapszene dumm
+In Wirklichkeit seid ihr nur einfache Jungs
+Das sind meine Freunde, seht ihr, ihr seid einfach gebumst
+Ich hör die Kids rufen „Endlich ist er wieder da“
+Wie mich die Kids suchen, weil der Typ bei VIVA war
+Er war bei MTV, trotzdem bleibt er hier bei euch
+Ich bin ein Vorbild geworden mit 'ner Vier in Deutsch
+Das ganze Land spürt das Beben in mir
+Alle eure Alpträume leben in mir
+Sie sehen in mir den Typen der sie so gerne wär'n
+Sie schneiden sich die Arme auf um meine Strophe zu lernen
+Also
+[Hook]
+Kopf hoch, denn morgen ist ein neuer Tag
+Kopf hoch, Jungs, morgen ist nicht euer Tag
+Ich mach es klar, dass die Sonne und der Mond scheint
+Wenn ich will, mach ich, dass die Sonne und der Mond weint
+Guckt mich an, ich mach den Rap von der Straße
+Keiner von euch kriegt mich weg von der Straße
+Ich fühl mich wohl in dieser Hölle aus Beton
+Bis jetzt ist noch niemand aus dieser Hölle rausgekomm'
+[Part 2]
+Es gibt nur einen wie mich
+Ihr könnt zum Jupiter fliegen, auch dort gibt es keinen wie mich
+Hör dir diesen Track an und du fühlst, wer auf der Straße steht
+Stellt euch vor, ich bin der Typ der auf der Straße lebt
+Der die Straße liebt, denn ich bin ein Straßenkind
+Ich will kein Star sein wir sind Jungs die auf den Straßen sind
+Wir atmen Smog ein, atmen aus
+Jeder der hier lebt, will nie wieder aus dem Block raus
+Wenn du uns suchst wir sind Steinmetz im Spätkauf
+Ich mach nur einen Take und ganz Deutschland steht drauf
+Ich bin der neue Trend kauf mir n' neuen Benz
+Die ganze Szene ist voll mit meinen treuen Fans
+Ich bin nicht scharf auf ein lila Coupé
+Ich hätt viel lieber nen VIVA Comet
+Ich bring mein Album raus und krieg dafür den Grimmepreis
+Ihr könnt alle kommen, weil ich locker auf euerViertelscheiß
+[Hook]
+Kopf hoch, denn morgen ist ein neuer Tag
+Kopf hoch, Jungs, morgen ist nicht euer Tag
+Ich mach es klar, dass die Sonne und der Mond scheint
+Wenn ich will, mach ich, dass die Sonne und der Mond weint
+Guckt mich an, ich mach den Rap von der Straße
+Keiner von euch kriegt mich weg von der Straße
+Ich fühl mich wohl in dieser Hölle aus Beton
+Bis jetzt ist noch niemand aus dieser Hölle rausgekomm'</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -568,7 +730,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Se Left Crowd]"Yo, my fans, I want to make some vocal shows with you and yo I, I start it""I say Kors, you say Kors one. Kors!"..."Ehm, we start it again!""I say Kors , you say Kors one. Kors!""One!""Kors!""One!""I say Kors King, you say King Kors. King!""Kors!"Hehehehe"No, now we start it again, come here my friend!""Yes""I say Kors, you say Kors One. Kors!""One!"„Nein, nicht so, Mann! Idiot!"I say Kors, you say Kors One. Kors!""One!""Kors!""One!""I say King Kors, you say Kors One. King Kors!""Kors One!"Kors King!""King Kors!"Hahahaha"Why you laugh? Lachen. It's not funny!"</t>
+          <t>[Se Left Crowd]
+"Yo, my fans, I want to make some vocal shows with you and yo I, I start it"
+"I say Kors, you say Kors one. Kors!"
+...
+"Ehm, we start it again!"
+"I say Kors , you say Kors one. Kors!"
+"One!"
+"Kors!"
+"One!"
+"I say Kors King, you say King Kors. King!"
+"Kors!"
+Hehehehe
+"No, now we start it again, come here my friend!"
+"Yes"
+"I say Kors, you say Kors One. Kors!"
+"One!"
+„Nein, nicht so, Mann! Idiot!
+"I say Kors, you say Kors One. Kors!"
+"One!"
+"Kors!"
+"One!"
+"I say King Kors, you say Kors One. King Kors!"
+"Kors One!"Kors King!""King Kors!"Hahahaha"Why you laugh? Lachen. It's not funny!"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -620,9 +804,88 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Songtext zu „Ersguterjunge“ ft. Baba Saad][Hook: Bushido &amp; Baba Saad]Wer ist dieser Junge? Ich bin dieser JungeGuck uns an ich spuck' dir zwei Kugeln in die LungeDiese zwei ficken drei die du holstDiese zwei ticken drei Kilo KoksWer ist dieser Junge? Ich bin dieser JungeGuck uns an ich spuck' dir zwei Kugeln in die LungeDiese zwei ficken drei die du holstDiese zwei ticken drei Kilo Koks[Part 1: Bushido &amp; Baba Saad]Ersguterjunge - ich mach harte MusikMein Label überlegt sich welcher Maserati mir liegtErsguterjunge - du hast nicht halb so viel PotenzialDu traust dich ohne Bodyguards nicht in meine Stadt zu fahrenIch bin ein ersguterjunge, der euch Kids killtDer Junge der von Curse's Liebesliedern nix hältDu bist nicht oben weil dein Rap nicht gut genug istZeig mir einen Rapper hier der Groupies auch im Zug ficktIch bin zu fit, wo seid ihr Nuttenkinder?Du hast ein Bonzenhaus ich komm' und piss' dahinterIch sitz' im ICE, was macht der Junge hier?Ich fick' dich Hundesohn das macht der Junge hier!Rap ist mein Job, ich mach' mein Geld damitDu hast ihm nichts zu sagen, auch wenn du älter bistIch komm vom Asphalt, ich hab ihn groß gemachtIch bin sein bester Freund, was guckst du so, du Spast?
-[Hook: Bushido &amp; Baba Saad]Wer ist dieser Junge? Ich bin dieser JungeGuck uns an ich spuck' dir zwei Kugeln in die LungeDiese zwei ficken drei die du holstDiese zwei ticken drei Kilo KoksWer ist dieser Junge? Ich bin dieser JungeGuck uns an ich spuck' dir zwei Kugeln in die LungeDiese zwei ficken drei die du holstDiese zwei ticken drei Kilo Koks[Part 2: Bushido &amp; Baba Saad]Diese zwei Typen sind zwei zu viel für euchAlle Rapper, die du kennst sind zu lieb und deutschGebt mir eine Chance ich komm und mach MassenmordDu Kind verbringst deinen Samstag im Aggro-BoardWarum signst du mich? Warum weint die Bitch?Du bist ein guter Junge und bald die Eins im BizIch bin stolz auf dich, ich mach nicht was du sagstIch durfte in der Schule früher nie auf KlassenfahrtWas für ein krasser Tag, die Nachbarschaft verrecktIch scheiß auf jeden Vogel, der über sein Ganja rapptDas ist ein ganzer Track, vergiss die Nutten und FrauenIch seh die Fans wenn ich laufe wie sie gucken und staunenIch weiß woher ich komm, ihr wisst woher er kommtIch stell mich hin und zieh die Knarre wenn der Mörder kommtGeh zurück nach Haus, denn du bist voll verschwultWer behauptet heute noch, dass Hamburg ruled?
-[Hook: Bushido &amp; Baba Saad]Wer ist dieser Junge? Ich bin dieser JungeGuck uns an ich spuck' dir zwei Kugeln in die LungeDiese zwei ficken drei die du holstDiese zwei ticken drei Kilo KoksWer ist dieser Junge? Ich bin dieser JungeGuck uns an ich spuck' dir zwei Kugeln in die LungeDiese zwei ficken drei die du holstDiese zwei ticken drei Kilo Koks[Part 3: Bushido &amp; Baba Saad]Du kannst flexen wie du willst, ich fick dich auch wenn du Erfolg hastKomm zeig mir deine Jungs, wir treffen uns am BolzplatzDu bist ein Vollspast aus dem HinterhaltDas wir uns ruhig unterhalten können stimmt nur halbDa wo ich herkomm muss jeder für sein Geld sorgenMein Tank war immer leer, ich hatte immer GeldsorgenDu willst dir Geld borgen, dann füll den Schuldschein ausWenn du Faxen machst, liefer' ich dir Jungs frei hausVon Crack bis Heroin, ich habe alles paratZwei kugeln in die Lunge, jetzt ist alles gesagt[Hook: Bushido &amp; Baba Saad]Wer ist dieser Junge? Ich bin dieser JungeGuck uns an ich spuck' dir zwei Kugeln in die LungeDiese zwei ficken drei die du holstDiese zwei ticken drei Kilo KoksWer ist dieser Junge? Ich bin dieser JungeGuck uns an ich spuck' dir zwei Kugeln in die LungeDiese zwei ficken drei die du holstDiese zwei ticken drei Kilo Koks</t>
+          <t>[Songtext zu „Ersguterjunge“ ft. Baba Saad]
+[Hook: Bushido &amp;Baba Saad]
+Wer ist dieser Junge?Ich bin dieser Junge
+Guck uns an ich spuck' dir zwei Kugeln in die Lunge
+Diese zwei ficken drei die du holst
+Diese zwei ticken drei Kilo Koks
+Wer ist dieser Junge?Ich bin dieser Junge
+Guck uns an ich spuck' dir zwei Kugeln in die Lunge
+Diese zwei ficken drei die du holst
+Diese zwei ticken drei Kilo Koks
+[Part 1: Bushido &amp;Baba Saad]
+Ersguterjunge -ich mach harte Musik
+Mein Label überlegt sich welcher Maserati mir liegt
+Ersguterjunge- du hast nicht halb so viel Potenzial
+Du traust dich ohne Bodyguards nicht in meine Stadt zu fahren
+Ich bin ein ersguterjunge,der euch Kids killt
+Der Junge der von Curse's Liebesliedern nix hält
+Du bist nicht oben weil dein Rap nicht gut genug ist
+Zeig mir einen Rapper hierder Groupies auch im Zug fickt
+Ich bin zu fit,wo seid ihr Nuttenkinder?
+Du hast ein Bonzenhausich komm' und piss' dahinter
+Ich sitz' im ICE, was macht der Junge hier?
+Ich fick' dich Hundesohndas macht der Junge hier!
+Rap ist mein Job,ich mach' mein Geld damit
+Du hast ihm nichts zu sagen,auch wenn du älter bist
+Ich komm vom Asphalt,ich hab ihn groß gemacht
+Ich bin sein bester Freund,was guckst du so, du Spast?
+[Hook: Bushido &amp;Baba Saad]
+Wer ist dieser Junge?Ich bin dieser Junge
+Guck uns an ich spuck' dir zwei Kugeln in die Lunge
+Diese zwei ficken drei die du holst
+Diese zwei ticken drei Kilo Koks
+Wer ist dieser Junge?Ich bin dieser Junge
+Guck uns an ich spuck' dir zwei Kugeln in die Lunge
+Diese zwei ficken drei die du holst
+Diese zwei ticken drei Kilo Koks
+[Part 2: Bushido &amp;Baba Saad]
+Diese zwei Typen sind zwei zu viel für euch
+Alle Rapper, die du kennst sind zu lieb und deutsch
+Gebt mir eine Chanceich komm und mach Massenmord
+Du Kind verbringst deinen Samstag im Aggro-Board
+Warum signst du mich?Warum weint die Bitch?
+Du bist ein guter Junge und bald die Eins im Biz
+Ich bin stolz auf dich,ich mach nicht was du sagst
+Ich durfte in der Schule früher nie auf Klassenfahrt
+Was für ein krasser Tag,die Nachbarschaft verreckt
+Ich scheiß auf jeden Vogel,der über sein Ganja rappt
+Das ist ein ganzer Track,vergiss die Nutten und Frauen
+Ich seh die Fans wenn ich laufe wie sie gucken und staunen
+Ich weiß woher ich komm,ihr wisst woher er kommt
+Ich stell mich hin und zieh die Knarrewenn der Mörder kommt
+Geh zurück nach Haus, denn du bist voll verschwult
+Wer behauptet heute noch, dass Hamburg ruled?
+[Hook: Bushido &amp; Baba Saad]
+Wer ist dieser Junge? Ich bin dieser Junge
+Guck uns an ich spuck' dir zwei Kugeln in die Lunge
+Diese zwei ficken drei die du holst
+Diese zwei ticken drei Kilo Koks
+Wer ist dieser Junge? Ich bin dieser Junge
+Guck uns an ich spuck' dir zwei Kugeln in die Lunge
+Diese zwei ficken drei die du holst
+Diese zwei ticken drei Kilo Koks
+[Part 3: Bushido &amp; Baba Saad]
+Du kannst flexen wie du willst, ich fick dich auch wenn du Erfolg hast
+Komm zeig mir deine Jungs, wir treffen uns am Bolzplatz
+Du bist ein Vollspast aus dem Hinterhalt
+Das wir uns ruhig unterhalten können stimmt nur halb
+Da wo ich herkomm muss jeder für sein Geld sorgen
+Mein Tank war immer leer, ich hatte immer Geldsorgen
+Du willst dir Geld borgen, dann füll den Schuldschein aus
+Wenn du Faxen machst, liefer' ich dir Jungs frei haus
+Von Crack bis Heroin, ich habe alles parat
+Zwei kugeln in die Lunge, jetzt ist alles gesagt
+[Hook: Bushido &amp; Baba Saad]
+Wer ist dieser Junge? Ich bin dieser Junge
+Guck uns an ich spuck' dir zwei Kugeln in die Lunge
+Diese zwei ficken drei die du holst
+Diese zwei ticken drei Kilo Koks
+Wer ist dieser Junge? Ich bin dieser Junge
+Guck uns an ich spuck' dir zwei Kugeln in die Lunge
+Diese zwei ficken drei die du holst
+Diese zwei ticken drei Kilo Koks</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -674,9 +937,76 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Songtext zu „Schmetterling“][Part 1]Du siehst so hübsch aus, wenn du neben mir liegstDein Blick und ich weiß, ich bin der, den du liebstDu schenkst mir mehr, als ich dir jemals wieder geben kannHalt mich fest und mach, dass ich wieder leben kannWieder sehen kann, ich bin so blind ohne dichBitte deck mich zu, ich bin wie ein Kind ohne dichWie ein kleiner Junge, der mit Licht einschläftDas Licht anlässt, weil er ohne nicht einschläftWie kann es sein, du bist ein Engel auf ErdenIch wollte niemals glauben, dass Engel auch sterbenDu bist die Sonne, die am Himmel scheintDu allein bist der Grund, warum der Himmel weintWenn die Wolken sich auftunIst es so, als wenn du mich anlächelst und die Wolken sich ausruhenGlaub mir eins, ich werd' mich gerne bemühenDenn ich lieb dich so sehr, dass wir wie Sterne verglühen[Hook]Ich guck dich an als wärst du von 'nem anderen SternSo wie wir beide sind, wär’n die anderen gernDu bist mein Schatz, ich lieb dich wie mein eigenes LebenIch vergess die ganze Welt und seh' nur uns zwei im RegenUns zwei wie wir nur noch uns zwei habenSchenk dir tausend weiße Tauben wenn wir uns heiratenDu hast nicht gewusst dass ich ein Rapper binDoch ich wusste damals schon: Du bist mein Schmetterling
-[Part 2]Wie eine Träne im MeerKomm ich mir vor wenn ich dran denke was wär wenn dein Segen nicht wärDenn ein Tag ohne dichWär wie ein Ende ohne Anfang, wie ein Tag ohne LichtUnd ich will nie mehr alleine raus in die WeltWeil’s mir schon lange nicht mehr draußen gefälltDu hast dich so sehr um mich gesorgtUnd ich schulde dir so viel, du hast mir so viel geborgtGuck hier, ich hab dir alles von mir anvertrautDu bist die einzige Frau, der man vertrautWeil ich weiß was dein Lächeln bewirktBete ich jeden Tag, dass dein Lächeln nicht stirbtMein Schatz, du bist und bleibst mein SchatzDu hast tief in meinem Herzen bis zum Schluss dein' PlatzDu nimmst mir die Angst weil du so wirklich bistDu bist unendlich süß, weil du mein Pfirsich bist[Hook]Ich guck dich an als wärst du von 'nem anderen SternSo wie wir beide sind, wär’n die anderen gernDu bist mein Schatz, ich lieb dich wie mein eigenes LebenIch vergess die ganze Welt und seh' nur uns zwei im RegenUns zwei wie wir nur noch uns zwei habenSchenk dir tausend weiße Tauben wenn wir uns heiratenDu hast nicht gewusst dass ich ein Rapper binDoch ich wusste damals schon: Du bist mein Schmetterling
-[Bridge]Gib mir deine Hand, sag den Ander'n, du willst hier seinSag den Ander'n, du willst nur noch mit mir seinDu weißt genau, ich lass' dich nie wieder gehenBitte sag mir, du wirst mir nie wieder fehlenGib mir deine Hand, sag den Ander'n, du willst hier seinSag den Ander'n, du willst nur noch mit mir seinDu weißt genau, ich lass' dich nie wieder gehenBitte sag mir, du wirst mir nie wieder fehlen[Hook]Ich guck dich an als wärst du von 'nem anderen SternSo wie wir beide sind, wär’n die anderen gernDu bist mein Schatz, ich lieb dich wie mein eigenes LebenIch vergess die ganze Welt und seh' nur uns zwei im RegenUns zwei wie wir nur noch uns zwei habenSchenk dir tausend weiße Tauben wenn wir uns heiratenDu hast nicht gewusst dass ich ein Rapper binDoch ich wusste damals schon: Du bist mein Schmetterling</t>
+          <t>[Songtext zu „Schmetterling“]
+[Part 1]
+Du siehst so hübsch aus, wenn du neben mir liegst
+Dein Blick und ich weiß, ich bin der, den du liebst
+Du schenkst mir mehr, als ich dir jemals wieder geben kann
+Halt mich fest und mach, dass ich wieder leben kann
+Wieder sehen kann, ich bin so blind ohne dich
+Bitte deck mich zu, ich bin wie ein Kind ohne dich
+Wie ein kleiner Junge, der mit Licht einschläft
+Das Licht anlässt, weil er ohne nicht einschläft
+Wie kann es sein, du bist ein Engel auf Erden
+Ich wollte niemals glauben, dass Engel auch sterben
+Du bist die Sonne, die am Himmel scheint
+Du allein bist der Grund, warum der Himmel weint
+Wenn die Wolken sich auftun
+Ist es so, als wenn du mich anlächelst und die Wolken sich ausruhen
+Glaub mir eins, ich werd' mich gerne bemühen
+Denn ich lieb dich so sehr, dass wir wie Sterne verglühen
+[Hook]
+Ich guck dich an als wärst du von 'nem anderen Stern
+So wie wir beide sind, wär’n die anderen gern
+Du bist mein Schatz, ich lieb dich wie mein eigenes Leben
+Ich vergess die ganze Welt und seh' nur uns zwei im Regen
+Uns zwei wie wir nur noch uns zwei haben
+Schenk dir tausend weiße Tauben wenn wir uns heiraten
+Du hast nicht gewusst dass ich ein Rapper bin
+Doch ich wusste damals schon: Du bist mein Schmetterling
+[Part 2]
+Wie eine Träne im MeerKomm ich mir vor wenn ich dran denke was wär wenn dein Segen nicht wär
+Denn ein Tag ohne dich
+Wär wie ein Ende ohne Anfang, wie ein Tag ohne Licht
+Und ich will nie mehr alleine raus in die Welt
+Weil’s mir schon lange nicht mehr draußen gefällt
+Du hast dich so sehr um mich gesorgt
+Und ich schulde dir so viel, du hast mir so viel geborgt
+Guck hier, ich hab dir alles von mir anvertraut
+Du bist die einzige Frau, der man vertraut
+Weil ich weiß was dein Lächeln bewirkt
+Bete ich jeden Tag, dass dein Lächeln nicht stirbt
+Mein Schatz, du bist und bleibst mein Schatz
+Du hast tief in meinem Herzen bis zum Schluss dein' Platz
+Du nimmst mir die Angst weil du so wirklich bist
+Du bist unendlich süß, weil du mein Pfirsich bist
+[Hook]
+Ich guck dich an als wärst du von 'nem anderen Stern
+So wie wir beide sind, wär’n die anderen gern
+Du bist mein Schatz, ich lieb dich wie mein eigenes Leben
+Ich vergess die ganze Welt und seh' nur uns zwei im Regen
+Uns zwei wie wir nur noch uns zwei haben
+Schenk dir tausend weiße Tauben wenn wir uns heiraten
+Du hast nicht gewusst dass ich ein Rapper bin
+Doch ich wusste damals schon: Du bist mein Schmetterling
+[Bridge]
+Gib mir deine Hand, sag den Ander'n, du willst hier sein
+Sag den Ander'n, du willst nur noch mit mir sein
+Du weißt genau, ich lass' dich nie wieder gehen
+Bitte sag mir, du wirst mir nie wieder fehlen
+Gib mir deine Hand, sag den Ander'n, du willst hier sein
+Sag den Ander'n, du willst nur noch mit mir sein
+Du weißt genau, ich lass' dich nie wieder gehen
+Bitte sag mir, du wirst mir nie wieder fehlen
+[Hook]
+Ich guck dich an als wärst du von 'nem anderen Stern
+So wie wir beide sind, wär’n die anderen gern
+Du bist mein Schatz, ich lieb dich wie mein eigenes Leben
+Ich vergess die ganze Welt und seh' nur uns zwei im Regen
+Uns zwei wie wir nur noch uns zwei haben
+Schenk dir tausend weiße Tauben wenn wir uns heiraten
+Du hast nicht gewusst dass ich ein Rapper bin
+Doch ich wusste damals schon: Du bist mein Schmetterling</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -728,10 +1058,92 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Songtext zu „Typisch Ich“][Hook]Ich bin (Boom) wieder da und es macht „Click clack (boom)“„Click clack“, ich hab wieder nix zu tunGuck hier (Boom), jeder fragt mich jetzt: „Wie machst du das?“Wie mach ich was? Ich mach einfach, dass es passtGeh raus (Boom), sag den Anderen, ich bin wieder backEs ist so weit, ich mach endlich wieder RapIch weiß (Boom), ihr wünscht euch alle so ein' Typen wie michKein Problem, ich bleib' einfach typisch ich[Part 1]Ich bin der Rapper, der euch zeigt, was eure Jugend machtDeswegen komm' ich nach dem Track auch in den Jugendknast(Uhh wie krass) Ich bin wieder hart am ziehenKomm und rate, wie viel' Kugeln hat mein Magazin?(Boom) Glaubt ihr im Ernst, ich hab' kein Thema parat?Ich schreib' aus Langeweile und werd' von der GEMA verklagtGeh mal und sag den anderen ich bin wieder zu hartIch machs’ genau wie's letzte Mal, auch wenn mich VIVA nicht magGeht ruhig nach Haus', ich schreib' mein Album draussen am BlockVon tausend deutschen Rappern werden morgen tausend gedroppt(Oh, mein Gott) Was ist mit der Szene passiert?Von mir aus könnt ihr rappen bis ihr eure Zähne verliertIhr glaubt ans Gesetz und wollt von mir jetzt gleiches RechtBei mir heißt gleiches Recht einfach, ihr seid beide schlechtIch kam aus dem nichts und bin auf einmal interaktivEgal was ihr sagt, ich weiß doch, dass ihr Kinder mich liebt
-[Hook]Ich bin (Boom) wieder da und es macht „Click clack (boom)“„Click clack“, ich hab wieder nix zu tunGuck hier (Boom), jeder fragt mich jetzt: „Wie machst du das?“Wie mach ich was? Ich mach einfach, dass es passtGeh raus (Boom), sag den Anderen, ich bin wieder backEs ist so weit, ich mach endlich wieder RapIch weiß (Boom), ihr wünscht euch alle so ein' Typen wie michKein Problem, ich bleib' einfach typisch ich[Part 2]Geh zu [wom?], komm und mach den König reichDu findest kein' Zweiten wie mich im Königreich(Schön, ich weiß) Deutschland wartet auf mein AlbumMein Überalbum, es macht überall (boom)Ich hab gehört, ich mach die Kinder wildIch mach heut' Abend Stress und morgen steht es in der BILDIch hab's geschafft ich bin endlich prominentDer Typ aus Tempelhof, den endlich jeder Promi kenntWas soll ich machen, wenn ich irgendwann Erfolg hätteIch hab Erfolg und kauf mir irgendwann 'ne GoldketteIch hab jetzt Beef mit X, Y, ZFür echten Beef seid ihr Vögel nur 'n bisschen zu nettGuck mich an, ich bin ein gemachter MannIch lach dich an, du denkst dir nur: „Was macht der Mann?“ (Oh)Ich war beim Echo, frag mich: „Ey, wie war's?“„Es war perfekt, geh und sag es deinen A'n'Rs“
-[Hook]Ich bin (Boom) wieder da und es macht „Click clack (boom)“„Click clack“, ich hab wieder nix zu tunGuck hier (Boom), jeder fragt mich jetzt: „Wie machst du das?“Wie mach ich was? Ich mach einfach, dass es passtGeh raus (Boom), sag den Anderen, ich bin wieder backEs ist so weit, ich mach endlich wieder RapIch weiß (Boom), ihr wünscht euch alle so ein' Typen wie michKein Problem, ich bleib' einfach typisch ich[Bridge: Bushido &amp; Samples/Scratches](Boom) „Back up in this Bitch again“(Boom) „Do this for the streets“(Boom) „Back up in this bitch again“(Boom) „Back on the block“(Boom) „Back up in this bitch again“(Boom) „Do this for the streets“(Boom) „Back up in this bitch again“(Boom) „What you gon' do“[Hook]Ich bin (Boom) wieder da und es macht „Click clack (boom)“„Click clack“, ich hab wieder nix zu tunGuck hier (Boom), jeder fragt mich jetzt: „Wie machst du das?“Wie mach ich was? Ich mach einfach, dass es passtGeh raus (Boom), sag den Anderen, ich bin wieder backEs ist so weit, ich mach endlich wieder RapIch weiß (Boom), ihr wünscht euch alle so ein' Typen wie michKein Problem, ich bleib' einfach typisch ich
-[Outro](Boom, Boom) Nichts zu tun(Boom) Wie mach ich was?(Boom) Wieder backWieder Rap(Boom) Typen wie michTypisch ich</t>
+          <t>[Songtext zu „Typisch Ich“]
+[Hook]
+Ich bin (Boom) wieder da und es macht „Click clack (boom)“
+„Click clack“, ich hab wieder nix zu tun
+Guck hier (Boom), jeder fragt mich jetzt: „Wie machst du das?“
+Wie mach ich was? Ich mach einfach, dass es passt
+Geh raus (Boom), sag den Anderen, ich bin wieder back
+Es ist so weit, ich mach endlich wieder Rap
+Ich weiß (Boom), ihr wünscht euch alle so ein' Typen wie mich
+Kein Problem, ich bleib' einfach typisch ich
+[Part 1]
+Ich bin der Rapper, der euch zeigt, was eure Jugend macht
+Deswegen komm' ich nach dem Track auch in den Jugendknast
+(Uhh wie krass) Ich bin wieder hart am ziehen
+Komm und rate, wie viel' Kugeln hat mein Magazin?
+(Boom) Glaubt ihr im Ernst, ich hab' kein Thema parat?
+Ich schreib' aus Langeweile und werd' von der GEMA verklagt
+Geh mal und sag den anderen ich bin wieder zu hart
+Ich machs’ genau wie's letzte Mal, auch wenn mich VIVA nicht mag
+Geht ruhig nach Haus', ich schreib' mein Album draussen am Block
+Von tausend deutschen Rappern werden morgen tausend gedroppt
+(Oh, mein Gott) Was ist mit der Szene passiert?
+Von mir aus könnt ihr rappen bis ihr eure Zähne verliert
+Ihr glaubt ans Gesetz und wollt von mir jetzt gleiches Recht
+Bei mir heißt gleiches Recht einfach, ihr seid beide schlecht
+Ich kam aus dem nichts und bin auf einmal interaktiv
+Egal was ihr sagt, ich weiß doch, dass ihr Kinder mich liebt
+[Hook]
+Ich bin (Boom) wieder da und es macht „Click clack (boom)“
+„Click clack“, ich hab wieder nix zu tun
+Guck hier (Boom), jeder fragt mich jetzt: „Wie machst du das?“
+Wie mach ich was? Ich mach einfach, dass es passt
+Geh raus (Boom), sag den Anderen, ich bin wieder back
+Es ist so weit, ich mach endlich wieder Rap
+Ich weiß (Boom), ihr wünscht euch alle so ein' Typen wie mich
+Kein Problem, ich bleib' einfach typisch ich
+[Part 2]
+Geh zu [wom?], komm und mach den König reich
+Du findest kein' Zweiten wie mich im Königreich
+(Schön, ich weiß) Deutschland wartet auf mein Album
+Mein Überalbum, es macht überall (boom)
+Ich hab gehört, ich mach die Kinder wild
+Ich mach heut' Abend Stress und morgen steht es in der BILD
+Ich hab's geschafft ich bin endlich prominent
+Der Typ aus Tempelhof, den endlich jeder Promi kennt
+Was soll ich machen, wenn ich irgendwann Erfolg hätte
+Ich hab Erfolg und kauf mir irgendwann 'ne Goldkette
+Ich hab jetzt Beef mit X, Y, ZFür echten Beef seid ihr Vögel nur 'n bisschen zu nett
+Guck mich an, ich bin ein gemachter Mann
+Ich lach dich an, du denkst dir nur: „Was macht der Mann?“ (Oh)
+Ich war beim Echo, frag mich: „Ey, wie war's?“
+„Es war perfekt, geh und sag es deinen A'n'Rs“
+[Hook]
+Ich bin (Boom) wieder da und es macht „Click clack (boom)“
+„Click clack“, ich hab wieder nix zu tun
+Guck hier (Boom), jeder fragt mich jetzt: „Wie machst du das?“
+Wie mach ich was? Ich mach einfach, dass es passt
+Geh raus (Boom), sag den Anderen, ich bin wieder back
+Es ist so weit, ich mach endlich wieder Rap
+Ich weiß (Boom), ihr wünscht euch alle so ein' Typen wie mich
+Kein Problem, ich bleib' einfach typisch ich
+[Bridge: Bushido &amp; Samples/Scratches]
+(Boom) „Back up in this Bitch again“
+(Boom) „Do this for the streets“
+(Boom) „Back up in this bitch again“
+(Boom) „Back on the block“
+(Boom) „Back up in this bitch again“
+(Boom) „Do this for the streets“
+(Boom) „Back up in this bitch again“
+(Boom) „What you gon' do“
+[Hook]
+Ich bin (Boom) wieder da und es macht „Click clack (boom)“
+„Click clack“, ich hab wieder nix zu tun
+Guck hier (Boom), jeder fragt mich jetzt: „Wie machst du das?“
+Wie mach ich was? Ich mach einfach, dass es passt
+Geh raus (Boom), sag den Anderen, ich bin wieder back
+Es ist so weit, ich mach endlich wieder Rap
+Ich weiß (Boom), ihr wünscht euch alle so ein' Typen wie mich
+Kein Problem, ich bleib' einfach typisch ich
+[Outro]
+(Boom, Boom) Nichts zu tun
+(Boom) Wie mach ich was?
+(Boom) Wieder back
+Wieder Rap
+(Boom) Typen wie mich
+Typisch ich</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -783,8 +1195,64 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Refrain - Boss Bitch Berlin:]Wann seh' ich Tageslicht? - Komm geb nicht aufWeißt du wie hart es ist?  - Leb dein TraumIch leb' in ewiger Nacht - Komm steh aufOb mein Herz je wieder lacht? - Wenn du dran glaubst[Strophe I - Chaker:]Ich geh meinem Schicksal entgegenMein Herz blutet mit Wörtern, meine Tränen sind der RegenSchaurige Szenen die sich in mir niederlegenIch bin ein Kind der Trauer und vor meinen Augen stirbt der SegenBin von Einsamkeit und Angst umgebenUnd muss diese Zeilen mit den Fasern meines Herzens webenMich über den Winter meines Kummers erhebenDie traurigen Schlachten meiner Träume Gestalt gebenMusste vieles in meinem Herzen aufgebenUnd träume im Dreck von kleinem Glück, so ist es ebenDie Sehnsucht hat mir den Lebensdurst gegebenSchweigen, Wut und Trauer die sich heute in mir niederlegenIch muss die Dunkelheit Stück für Stück zerlegenMein Finger in meine brennende, nicht heilende Wunde legenDenn heute bekenn ich mich schuldig zu lebenUnd versuche krampfhaft dieses Leben zu vergeben Bitch[Refrain]
-[Strophe II - Bushido:]Mama, bitte weck mich nicht aufIch hasse die grauen Wände in diesem dreckigen HausMama, ich kann das alles nicht mehr sehenIch guck mir mein Leben an und kann es nich verstehnMama, das Wasser tropft von den DeckenSag mir, warum muss ich mich in diesem Loch verstecken?In diesem Loch zwischen all den dunklen GängenWenn ich spielen wollte durfte ich mit den Hunden bellenIch geh' jetzt raus und werd' Geld verdienenHab' keine Angst, ich werd mich nie in diese Welt verliebenDie Welt in der wir nie wieder glücklich werdenAlles was ich will, ist einfach nur glücklich sterbenMama, erzähl mir, wie sieht ein Regenbogen aus?Wie sieht im Himmel, das Leben oben aus?Ich weiß nicht was mir der Schmerz versprichtIch weiß nur eins: Es tut weh wenn ein Herz zerbricht, Mama...[Refrain][Strophe III - Azad:]Bin auf der Suche nach dem Glück, mein Navigator die HoffnungIch träum' von dem Tag an dem die meinen hochkommenDas Schicksal ist mein WegIch leg mich in die Arme Gottes, kann nicht sehen, doch spüren wie er mich trägtDie Familie ist mein Herz, mein Blut ist mein VersMeine Tränen sind der Schmerz, BruderIch kann nicht lassen von dem Traum den ich hegeMein Weg den ich gehe bis mein Traum ich erlebe, khoyaMeine Tochter ist mein LichtIch gehe durch die Hölle, flieg zum Himmel und hole einen Stern nur für dichAllah ist meine Seele, dein ist mein LebenSein Wort ist mein Weg den ich wähleDer Beton in meinen Knochen, der Asphalt in meinem SchädelGlaub mir es ist kalt da wo wir lebenMeine Liebe ist meine KraftIhre Flügel die mich tragen und mich hoffen lassen, dass ich's doch schaffe
+          <t>[Refrain - Boss Bitch Berlin:]
+Wann seh' ich Tageslicht? - Komm geb nicht auf
+Weißt du wie hart es ist? - Leb dein Traum
+Ich leb' in ewiger Nacht - Komm steh auf
+Ob mein Herz je wieder lacht? - Wenn du dran glaubst
+[Strophe I - Chaker:]
+Ich geh meinem Schicksal entgegen
+Mein Herz blutet mit Wörtern, meine Tränen sind der Regen
+Schaurige Szenen die sich in mir niederlegen
+Ich bin ein Kind der Trauer und vor meinen Augen stirbt der Segen
+Bin von Einsamkeit und Angst umgeben
+Und muss diese Zeilen mit den Fasern meines Herzens weben
+Mich über den Winter meines Kummers erheben
+Die traurigen Schlachten meiner Träume Gestalt geben
+Musste vieles in meinem Herzen aufgeben
+Und träume im Dreck von kleinem Glück, so ist es eben
+Die Sehnsucht hat mir den Lebensdurst gegeben
+Schweigen, Wut und Trauer die sich heute in mir niederlegen
+Ich muss die Dunkelheit Stück für Stück zerlegen
+Mein Finger in meine brennende, nicht heilende Wunde legen
+Denn heute bekenn ich mich schuldig zu leben
+Und versuche krampfhaft dieses Leben zu vergeben Bitch
+[Refrain]
+[Strophe II - Bushido:]
+Mama, bitte weck mich nicht auf
+Ich hasse die grauen Wände in diesem dreckigen Haus
+Mama, ich kann das alles nicht mehr sehen
+Ich guck mir mein Leben an und kann es nich verstehn
+Mama, das Wasser tropft von den Decken
+Sag mir, warum muss ich mich in diesem Loch verstecken?
+In diesem Loch zwischen all den dunklen Gängen
+Wenn ich spielen wollte durfte ich mit den Hunden bellen
+Ich geh' jetzt raus und werd' Geld verdienen
+Hab' keine Angst, ich werd mich nie in diese Welt verlieben
+Die Welt in der wir nie wieder glücklich werden
+Alles was ich will, ist einfach nur glücklich sterben
+Mama, erzähl mir, wie sieht ein Regenbogen aus?
+Wie sieht im Himmel, das Leben oben aus?
+Ich weiß nicht was mir der Schmerz verspricht
+Ich weiß nur eins: Es tut weh wenn ein Herz zerbricht, Mama...
+[Refrain]
+[Strophe III - Azad:]
+Bin auf der Suche nach dem Glück, mein Navigator die Hoffnung
+Ich träum' von dem Tag an dem die meinen hochkommen
+Das Schicksal ist mein Weg
+Ich leg mich in die Arme Gottes, kann nicht sehen, doch spüren wie er mich trägt
+Die Familie ist mein Herz, mein Blut ist mein Vers
+Meine Tränen sind der Schmerz, Bruder
+Ich kann nicht lassen von dem Traum den ich hege
+Mein Weg den ich gehe bis mein Traum ich erlebe,khoya
+Meine Tochter ist mein Licht
+Ich gehe durch die Hölle, flieg zum Himmel und hole einen Stern nur für dich
+Allah ist meine Seele, dein ist mein Leben
+Sein Wort ist mein Weg den ich wähle
+Der Beton in meinen Knochen, der Asphalt in meinem Schädel
+Glaub mir es ist kalt da wo wir leben
+Meine Liebe ist meine Kraft
+Ihre Flügel die mich tragen und mich hoffen lassen, dass ich's doch schaffe
 [Refrain]</t>
         </is>
       </c>
@@ -837,9 +1305,69 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Intro: Sentino]Badam-bam-bamAh, yo[Part 1: Sentino]Als Kind wusst' ich, ich werd' kein FeuerwehrmannSondern reich, doch ich wusst' nicht, dass sie Steuern verlang’nJeder Schlussstrich ist ein NeuanfangBald ist dein Junge wieder da aber als Rapper statt als BundesligastarWer ist hundert Lieder stark? - Er, SentinoDer Rest ist noch nicht weit entwickelt wie ein EmbryoScheiß auf die alte Schule es ist 2004Ich mach mal Eins-Fünf dort, mal 2000 hierSchenk die Hälfte meiner Mutter, sie hat meist viele Sorgen undSie will es morgen und man weiß nie was morgen kommtIch werd' es schaffen nur für sieNehm es mir von euch dann, Deutschlands PlattenindustrieDenn ich machte hin und wieder Fehler, ich hab's oft bereutGlaubte ich scheiter' jeder von euch hofft es heut’Hofft das mein Körper nicht intakt istWenn eins der Wörter nicht im Takt sitzt; dann ist es AbsichtSpuck Flammen bis das Licht entfacht istVers um Vers bis dann Schicht im Schacht istIch brauch es, dass man mich beachtet, du OpferAnsonsten hol' den Vodka ein Teufelskreis
-[Hook: Sentino]Es ist ein Teufelskreis, ich komm' nicht da rausMach dir keine Sorgen, denn bald komm ich nach HausDoch jetzt noch nicht, manchmal stresst es dichGlaub mir alles wird neu und ich will, dass du wieder träumstEs ist ein Teufelskreis, ich komm' nicht da rausMach dir keine Sorgen, denn bald komm ich nach HausDoch jetzt noch nicht, manchmal stresst es dichGlaub mir alles wird neu und ich will, dass du wieder träumst[Part 2: Bushido, Sentino]Als Kind wusst' ich, ich werd' kein AstronautIch wusste nur aus Filmen wie man sich im Knast so hautIch hab's gesehen (bei Freunden) guck ich hab's von den'nIch kann's verstehen es läuft so bei acht von zehnAcht von zehn sitzen zehn harte JahreAcht von acht von den Typen haben schwarze Haare undAuf einmal soll aus mir was anderes werdenNiemand kommt zu mir und sagt: "Aus dir kann was werden", dennIch hab kein Vater der mir was erzähltNur ein kleiner Junge der mit seinen Lastern lebt (der was erlebt)Sein Text ist nur, was er lebtDie Leute hören ihn und wollen dass es krasser gehtKeiner fragt ihn, "Warum bist du wieder so?Bitte sag uns, warum schreibst du deine Lieder so?"Warum sagt er sein Leben ist ein harter WegVielleicht weil ihm doch eigentlich sein Vater fehltDer Mann, der seinen Sohn mit zum Angeln nimmtSchon mit zwei Jahren war ich wie kein anderes KindIch bin ein guter Sohn der seine Mutter liebtUnd wenn er reich wird es alles seiner Mutter gibt, komm
-[Hook: Sentino]Es ist ein Teufelskreis, ich komm' nicht da rausMach dir keine Sorgen, denn bald komm ich nach HausDoch jetzt noch nicht, manchmal stresst es dichGlaub mir alles wird neu und ich will, dass du wieder träumstEs ist ein Teufelskreis, ich komm' nicht da rausMach dir keine Sorgen, denn bald komm ich nach HausDoch jetzt noch nicht, manchmal stresst es dichGlaub mir alles wird neu und ich will, dass du wieder träumst</t>
+          <t>[Intro: Sentino]
+Badam-bam-bam
+Ah, yo
+[Part 1: Sentino]
+Als Kind wusst' ich, ich werd' kein Feuerwehrmann
+Sondern reich, doch ich wusst' nicht, dass sie Steuern verlang’n
+Jeder Schlussstrich ist ein Neuanfang
+Bald ist dein Junge wieder da aber als Rapper statt als Bundesligastar
+Wer ist hundert Lieder stark? - Er, Sentino
+Der Rest ist noch nicht weit entwickelt wie ein Embryo
+Scheiß auf die alte Schule es ist 2004
+Ich mach mal Eins-Fünf dort, mal 2000 hier
+Schenk die Hälfte meiner Mutter, sie hat meist viele Sorgen und
+Sie will es morgen und man weiß nie was morgen kommt
+Ich werd' es schaffen nur für sie
+Nehm es mir von euch dann, Deutschlands Plattenindustrie
+Denn ich machte hin und wieder Fehler, ich hab's oft bereut
+Glaubte ich scheiter' jeder von euch hofft es heut’
+Hofft das mein Körper nicht intakt ist
+Wenn eins der Wörter nicht im Takt sitzt; dann ist es Absicht
+Spuck Flammen bis das Licht entfacht ist
+Vers um Vers bis dann Schicht im Schacht ist
+Ich brauch es, dass man mich beachtet, du Opfer
+Ansonsten hol' den Vodka ein Teufelskreis
+[Hook: Sentino]
+Es ist ein Teufelskreis, ich komm' nicht da raus
+Mach dir keine Sorgen, denn bald komm ich nach Haus
+Doch jetzt noch nicht, manchmal stresst es dich
+Glaub mir alles wird neu und ich will, dass du wieder träumst
+Es ist ein Teufelskreis, ich komm' nicht da raus
+Mach dir keine Sorgen, denn bald komm ich nach Haus
+Doch jetzt noch nicht, manchmal stresst es dich
+Glaub mir alles wird neu und ich will, dass du wieder träumst
+[Part 2: Bushido,Sentino]
+Als Kind wusst' ich, ich werd' kein Astronaut
+Ich wusste nur aus Filmen wie man sich im Knast so haut
+Ich hab's gesehen(bei Freunden)guck ich hab's von den'n
+Ich kann's verstehen es läuft so bei acht von zehn
+Acht von zehn sitzen zehn harte Jahre
+Acht von acht von den Typen haben schwarze Haare und
+Auf einmal soll aus mir was anderes werden
+Niemand kommt zu mir und sagt: "Aus dir kann was werden", denn
+Ich hab kein Vater der mir was erzählt
+Nur ein kleiner Junge der mit seinen Lastern lebt(der was erlebt)
+Sein Text ist nur, was er lebt
+Die Leute hören ihn und wollen dass es krasser geht
+Keiner fragt ihn, "Warum bist du wieder so?
+Bitte sag uns, warum schreibst du deine Lieder so?"
+Warumsagt er sein Leben ist ein harter Weg
+Vielleichtweil ihm doch eigentlich sein Vater fehlt
+Der Mann, der seinen Sohn mit zum Angeln nimmt
+Schon mit zwei Jahren war ich wie kein anderes Kind
+Ich bin ein guter Sohn der seine Mutter liebt
+Und wenn er reich wird es alles seiner Mutter gibt, komm
+[Hook: Sentino]
+Es ist ein Teufelskreis, ich komm' nicht da raus
+Mach dir keine Sorgen, denn bald komm ich nach Haus
+Doch jetzt noch nicht, manchmal stresst es dich
+Glaub mir alles wird neu und ich will, dass du wieder träumst
+Es ist ein Teufelskreis, ich komm' nicht da raus
+Mach dir keine Sorgen, denn bald komm ich nach Haus
+Doch jetzt noch nicht, manchmal stresst es dich
+Glaub mir alles wird neu und ich will, dass du wieder träumst</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -891,9 +1419,101 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>*Klingeln*Saad: HalloBushido: Hey Saad!Saad: Alles klar, wie gehts dir?Bushido: Was los, Alter?Saad: Ich bin gleich unterwegs zu dirBushido: Wo bist du gerade?Saad: Ich bin gerade, also auf dem Weg von Bremen zu dir, Alter. Hast du Hengzt erreicht?Bushido: Ja man, er wollte, er hat gesagt er ruft mich an, aber er hat kein Guthaben mehrSaad: Sowieso, wie immer, ruf ihn an, Alter, sag ihm, dass ich gleich vorbeikommeBushido: Ich ruf ihn an, heute ist Gangbang! Auf jeden Fall, bis gleich. Tschüß!*Klingeln*Bass Sultan Hengzt: Hallo?Bushido: Hengzt?Bass Sultan Hengzt: JaBushido: Icke binsBass Sultan Hengzt: Was los, Alter?Bushido: Was machst du?Bass Sultan Hengzt: Chillen, AlterBushido: Saad ist gleich bei mirBass Sultan Hengzt: Ja und dann, was machen wir?Bushido: Ja, was machen wir’n dann?Bass Sultan Hengzt: Gangbang?Bushido: Gangbang, Alter!Bass Sultan Hengzt: Hast am Start?Bushido: Heut ist Gangbang!Bass Sultan Hengzt: Ich komm vorbei, Bruder!Bushido: Jetzt wird gefickt! Ich bin zu HauseBass Sultan Hengzt: Jetzt wird gefickt!Bushido: Jetzt wird gefickt!(Jetzt wird gefickt)
-[Hook][Bass Sultan Hengzt:] Ein Schwanz in den Arsch[Bushido:] Ein Schwanz in den Mund[Saad:] Ein Schwanz in die Fotze[Bushido:]Jetzt wird richtig gebumst[Bass Sultan Hengzt:] Es ist gang gagang gagang gang gangbang[Alle:] Bushido, Saad und Bass Sultan Hengst[Saad:] Leg dein Geld auf den Tisch, es wird Zeit für die drei Ticker[Bushido:]Ich mach Gangbang und schick euch in die Dreißiger[Bass Sultan Hengzt:] Es ist gang gagang gagang gang gangbang[Alle:] Bushido, Saad und Bass Sultan Hengzt[Verse 1: Saad]Yeah, Ich komm in deine Stadt, dein Bezirk wird ganz ruhigBring mir die Typen die du kennst ich nehm sie alle durchIch setze das um was du Leuten vormachstDu brauchst nicht viel zu Reden ich fick euch noch vor achtIch zeig dir was passiert wenn wir beide Streit habenDeine Tochter wird für meine Jungs zum LeihwagenIch steh im Mittelpunkt, weil ich das nicht anders kennWenn du nicht down mit mir bist, dann geh woanders hinBild dir nichts mehr ein du bist nicht G genugIch will dein Geld haben, ich geb dir ein Beat und gutDu bist älter als ich? (Bushido: Doch er kann doppelt so viel)Ich hab alle Flows drauf und verkloppe dich FreakGuck dich bitte an, merkst du wie beliebt du noch bistDu warst ein Star wie Dendemann, Homie jetzt riechst du nach FischGeb ein Fick, ihr seid den Fick nicht wertIch bin hier,  die alte Rapelite fick dich zuerst
-[Hook][Verse 2: Bass Sultan Hengzt]Lass deine Kinder nicht zur Schule, Hengzt rockt das HausIch mach dein Pausenhof zum Schlachthof, Panik bricht ausHier ist der Chef des RapsBass Sultan Hengzt, yoah, ohne Maulkorb mit Saad und BushidoKommt ihr Zecken, BordsteinfressenKetten raus, Kragen hoch, Billigketten brechenWenn ich rappe sagen Mamas nur AAh und UUhIch bin direkt aus dem Kiez von der Klick Bass CrewWas du Pussy, wer schiebt ne WelleIch hab die grösste Schnauze Deutschlands, halt die Fresse!Ich mach Geld von CDs über TapesJeder der mich batteln will, ist um 7 ok?Du haufen Stück Scheiße, sei leiseRap nicht, fick dein Image, nur ein Blick - ich fick dich!Denkst du es ist Spaß wenn ich dich therapier'Kommt ruhig zu viert, Ihr werdert alle blamiert![Hook][Verse 3: Bushido]Herzlich willkommen auf dem Asphalt, er singt hier ein LiedGuck zum Horizont, was willst du Kind hier?Zwischen Männern die mit Hero und Koks tickenWir sind die drei, die euch Zecken in den Zoo schickenDie euch so ficken bis ihr euer Blut kotztIch bin Berliner, der nich redet sondern zuboxtDeine ganze Familie sind TaschenspielerIch werd zu 90 Prozent morgen WaffendealerIch werd es machen wie der Cowboy im WesternIch trink nur noch Whisky und fick deine SchwesternBring mir alle deine Kumpels und PfadfinderGeht, macht 'ne Boygroup und nennt euch die ArschkinderIch bin nich ASD, ich bin ein HardlinerDrück deiner Mutter mein Tag mit meinem ArtlinerNiemand hier hatte jemals seinen SchulabschlussKomm, nenn mich Bruder, komm, gib mir einen Bruderkuss
+          <t>*Klingeln*
+Saad: Hallo
+Bushido: Hey Saad!
+Saad: Alles klar, wie gehts dir?
+Bushido: Was los, Alter?
+Saad: Ich bin gleich unterwegs zu dir
+Bushido: Wo bist du gerade?
+Saad: Ich bin gerade, also auf dem Weg von Bremen zu dir, Alter. Hast du Hengzt erreicht?
+Bushido: Ja man, er wollte, er hat gesagt er ruft mich an, aber er hat kein Guthaben mehr
+Saad: Sowieso, wie immer, ruf ihn an, Alter, sag ihm, dass ich gleich vorbeikomme
+Bushido: Ich ruf ihn an, heute ist Gangbang! Auf jeden Fall, bis gleich. Tschüß!
+*Klingeln*
+Bass Sultan Hengzt: Hallo?
+Bushido: Hengzt?
+Bass Sultan Hengzt: Ja
+Bushido: Icke bins
+Bass Sultan Hengzt: Was los, Alter?
+Bushido: Was machst du?
+Bass Sultan Hengzt: Chillen, Alter
+Bushido: Saad ist gleich bei mir
+Bass Sultan Hengzt: Ja und dann, was machen wir?
+Bushido: Ja, was machen wir’n dann?
+Bass Sultan Hengzt: Gangbang?
+Bushido: Gangbang, Alter!
+Bass Sultan Hengzt: Hast am Start?
+Bushido: Heut ist Gangbang!
+Bass Sultan Hengzt: Ich komm vorbei, Bruder!
+Bushido: Jetzt wird gefickt! Ich bin zu Hause
+Bass Sultan Hengzt: Jetzt wird gefickt!
+Bushido: Jetzt wird gefickt!
+(Jetzt wird gefickt)
+[Hook]
+[Bass Sultan Hengzt:] Ein Schwanz in den Arsch
+[Bushido:] Ein Schwanz in den Mund
+[Saad:] Ein Schwanz in die Fotze
+[Bushido:]Jetzt wird richtig gebumst
+[Bass Sultan Hengzt:] Es ist gang gagang gagang gang gangbang
+[Alle:] Bushido, Saad und Bass Sultan Hengst
+[Saad:] Leg dein Geld auf den Tisch, es wird Zeit für die drei Ticker
+[Bushido:]Ich mach Gangbang und schick euch in die Dreißiger
+[Bass Sultan Hengzt:] Es ist gang gagang gagang gang gangbang
+[Alle:] Bushido, Saad und Bass Sultan Hengzt
+[Verse 1: Saad]
+Yeah, Ich komm in deine Stadt, dein Bezirk wird ganz ruhig
+Bring mir die Typen die du kennst ich nehm sie alle durch
+Ich setze das um was du Leuten vormachst
+Du brauchst nicht viel zu Reden ich fick euch noch vor acht
+Ich zeig dir was passiert wenn wir beide Streit haben
+Deine Tochter wird für meine Jungs zum Leihwagen
+Ich steh im Mittelpunkt, weil ich das nicht anders kenn
+Wenn du nicht down mit mir bist, dann geh woanders hin
+Bild dir nichts mehr ein du bist nicht G genug
+Ich will dein Geld haben, ich geb dir ein Beat und gut
+Du bist älter als ich? (Bushido: Doch er kann doppelt so viel)
+Ich hab alle Flows drauf und verkloppe dich Freak
+Guck dich bitte an, merkst du wie beliebt du noch bist
+Du warst ein Star wie Dendemann, Homie jetzt riechst du nach Fisch
+Geb ein Fick, ihr seid den Fick nicht wert
+Ich bin hier, die alte Rapelite fick dich zuerst
+[Hook]
+[Verse 2: Bass Sultan Hengzt]
+Lass deine Kinder nicht zur Schule, Hengzt rockt das Haus
+Ich mach dein Pausenhof zum Schlachthof, Panik bricht aus
+Hier ist der Chef des Raps
+Bass Sultan Hengzt, yoah, ohne Maulkorb mit Saad und Bushido
+Kommt ihr Zecken, Bordsteinfressen
+Ketten raus, Kragen hoch, Billigketten brechen
+Wenn ich rappe sagen Mamas nur AAh und UUh
+Ich bin direkt aus dem Kiez von der Klick Bass Crew
+Was du Pussy, wer schiebt ne Welle
+Ich hab die grösste Schnauze Deutschlands, halt die Fresse!
+Ich mach Geld von CDs über Tapes
+Jeder der mich batteln will, ist um 7 ok?
+Du haufen Stück Scheiße, sei leise
+Rap nicht, fick dein Image, nur ein Blick - ich fick dich!
+Denkst du es ist Spaß wenn ich dich therapier'
+Kommt ruhig zu viert, Ihr werdert alle blamiert!
+[Hook]
+[Verse 3: Bushido]
+Herzlich willkommen auf dem Asphalt, er singt hier ein Lied
+Guck zum Horizont, was willst du Kind hier?
+Zwischen Männern die mit Hero und Koks ticken
+Wir sind die drei, die euch Zecken in den Zoo schicken
+Die euch so ficken bis ihr euer Blut kotzt
+Ich bin Berliner, der nich redet sondern zuboxt
+Deine ganze Familie sind Taschenspieler
+Ich werd zu 90 Prozent morgen Waffendealer
+Ich werd es machen wie der Cowboy im Western
+Ich trink nur noch Whisky und fick deine Schwestern
+Bring mir alle deine Kumpels und Pfadfinder
+Geht, macht 'ne Boygroup und nennt euch die Arschkinder
+Ich bin nich ASD, ich bin ein Hardliner
+Drück deiner Mutter mein Tag mit meinem Artliner
+Niemand hier hatte jemals seinen Schulabschluss
+Komm, nenn mich Bruder, komm, gib mir einen Bruderkuss
 [Hook]</t>
         </is>
       </c>
@@ -946,9 +1566,79 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Sentino - Intro]Guten Morgen DeutschlandHerzlich WillkommenOh, Bushido, yeah DJ Desue, SentinoEine neue Zeit fängt anUh, ha, BadabapboFickt euch[Bushido - Part I]Ich schreib' einen Hit für jeden Penner da draußenBin berühmter als die Rapper die schon länger da draußen sindAus den Augen aus dem Sinn "Bye Bye", Geht JungsDa mein neues Album bald schon dein scheiß Tape bumstEins, zwei Takes und die Bombe explodiertDu suchst Stress, Okay ich komme jetzt zu dirDu Idiot hast ein paar glückliche FansIch mach ein paar Modelnutten glücklich aufm Rücksitz vom BenzDenn es nützt nichts du denkst, dass es dein Image rettetWenn du nette Scheiße rappst als ob man bei nem Single-Chat istIhr Kleinkinder hättet gern so viel Style wie ichDoch dein Flow hat mehr Lücken als ein PolizeiberichtAlso hol die Mic´s du Bitch oder Soda mit WasserIch falle mit der Tür ins Haus nenn mich Mohammed psssstAb jetzt ist nur Berlin am zug das Ghetto im RingIch schlage zu bis ich nächtes Jahr den Echo gewinn, fick
-[Hook - Sentino:]Deutschland gib mir ein Mic und ich zeig euchWo lang es geht, solang ich steh...Deutschland gib mir nur ein Song und ich schreib euch10.000 Hits, Geh raus und fickDeutschland gib mir ein Mic und ich zeig euchWo lang es geht, solang ich steh...Deutschland gib mir nur ein Song und ich schreib euch10.000 Hits, geh raus und fick...[Sentino - Part II]Lass uns Wetten wer als erster im Benz hocktIch will grüne Scheine bis mein Konto aussieht wie der Werder Bremen mit FanblockIch bin Psycho, Psycho meine Ex hat Recht undIch mach Cash und du sitz frühst im BüroMir egal mit welchem Tourbus du gekommen bistWarum ich geh jetzt zweimal im Bogen wie das Logo von McDonaldsIch wär auf dem ganzen Globus was BesonderesWenn ich Fame bin und essen gehe schieß ein Foto von den PommesBei den Zeilen explodieren und die PlattenIch kann die Konkurrenz selber nicht sehen wie Tätowierungen im NackenIch bin nur hier um es zu schaffen, der Rest kann gehenBring mir 100 MCs her es bleiben sechs Mann stehen...Sechs von denen werden nicht zum Problemfall, schau' mein Handgelenk anEs scheint noch greller als das Licht im OP-SaalAlso gib mir ein Mic, gibs mir gleich, fick dir dein WeibSie schreit: "Gibs mir" und weint weil keiner sonst fickt sie so geil...
-[Hook][Bushido - Part III]Ihr habt die Skyline gesehen, den Bordstein gehörtNicht mehr lang und dann trägt auch Torch meine ShirtsVor zwei Jahren kannten sie noch nicht mal mein'n NamenHeute lassen alle Spasten das Licht an beim Schlafen"Klick" Licht aus, euer Alptraum ist backDu kriegst Schüttelfrost und ein Viertel hat kaum RespektWarum? Weil du feige bist, du Spinner bleibst nix mehrAls ein alter Sack der sich vor Kindern einen wichst, WerWill etwas von mir? Kommt her ihr HipHop-ToysIch mache einen Song und definiere HipHop neuDenn ihr wohnt in Dorf "X" und macht auf Nelly am BahnhofUnd ihr seht mich täglich auf Viva nach Nelly FurtadoIch war schon mit 14 beliebt bei FrauenHatte Schlampen sowie andere einen Freestyle-RaumIch leb' meinen Traum, du lebst nur die IllusionIch will Millionen, in einer deutschen Villa wohnen[Outro]DeutschlandGuten Abend, ha!Auf WiedersehenDas war erst der Anfang, ManOh, Bushido
+          <t>[Sentino - Intro]
+Guten Morgen Deutschland
+Herzlich Willkommen
+Oh, Bushido, yeahDJ Desue,Sentino
+Eine neue Zeit fängt an
+Uh, ha, Badabapbo
+Fickt euch
+[Bushido - Part I]
+Ich schreib' einen Hit für jeden Penner da draußenBin berühmter als die Rapper die schon länger da draußen sind
+Aus den Augen aus dem Sinn "Bye Bye", Geht Jungs
+Da mein neues Album bald schon dein scheiß Tape bumst
+Eins, zwei Takes und die Bombe explodiert
+Du suchst Stress, Okay ich komme jetzt zu dir
+Du Idiot hast ein paar glückliche Fans
+Ich mach ein paar Modelnutten glücklich aufm Rücksitz vom Benz
+Denn es nützt nichts du denkst, dass es dein Image rettet
+Wenn du nette Scheiße rappst als ob man bei nem Single-Chat ist
+Ihr Kleinkinder hättet gern so viel Style wie ich
+Doch dein Flow hat mehr Lücken als ein Polizeibericht
+Also hol die Mic´s du Bitch oder Soda mit Wasser
+Ich falle mit der Tür ins Haus nenn michMohammed psssst
+Ab jetzt ist nur Berlin am zug das Ghetto im Ring
+Ich schlage zu bis ich nächtes Jahr den Echo gewinn,fick
+[Hook - Sentino:]
+Deutschland gib mir ein Mic und ich zeig euch
+Wo lang es geht, solang ich steh...
+Deutschland gib mir nur ein Song und ich schreib euch
+10.000 Hits, Geh raus und fick
+Deutschland gib mir ein Mic und ich zeig euch
+Wo lang es geht, solang ich steh...
+Deutschland gib mir nur ein Song und ich schreib euch
+10.000 Hits, geh raus und fick...
+[Sentino - Part II]
+Lass uns Wetten wer als erster im Benz hockt
+Ich will grüne Scheine bis mein Konto aussieht wie der Werder Bremen mit Fanblock
+Ich bin Psycho, Psycho meine Ex hat Recht und
+Ich mach Cash und du sitz frühst im Büro
+Mir egal mit welchem Tourbus du gekommen bist
+Warum ich geh jetzt zweimal im Bogen wie das Logo von McDonalds
+Ich wär auf dem ganzen Globus was Besonderes
+Wenn ich Fame bin und essen gehe schieß ein Foto von den Pommes
+Bei den Zeilen explodieren und die Platten
+Ich kann die Konkurrenz selber nicht sehen wie Tätowierungen im Nacken
+Ich bin nur hier um es zu schaffen, der Rest kann gehen
+Bring mir 100 MCs her es bleiben sechs Mann stehen...
+Sechs von denen werden nicht zum Problemfall, schau' mein Handgelenk an
+Es scheint noch greller als das Licht im OP-Saal
+Also gib mir ein Mic, gibs mir gleich, fick dir dein Weib
+Sie schreit: "Gibs mir" und weint weil keiner sonst fickt sie so geil...
+[Hook]
+[Bushido - Part III]
+Ihr habt die Skyline gesehen, den Bordstein gehört
+Nicht mehr lang und dann trägt auch Torch meine Shirts
+Vor zwei Jahren kannten sie noch nicht mal mein'n Namen
+Heute lassen alle Spasten das Licht an beim Schlafen
+"Klick" Licht aus, euer Alptraum ist back
+Du kriegst Schüttelfrost und ein Viertel hat kaum Respekt
+Warum? Weil du feige bist, du Spinner bleibst nix mehr
+Als ein alter Sack der sich vor Kindern einen wichst, Wer
+Will etwas von mir? Kommt her ihr HipHop-Toys
+Ich mache einen Song und definiere HipHop neu
+Denn ihr wohnt in Dorf "X" und macht auf Nelly am Bahnhof
+Und ihr seht mich täglich auf Viva nach Nelly Furtado
+Ich war schon mit 14 beliebt bei Frauen
+Hatte Schlampen sowie andere einen Freestyle-Raum
+Ich leb' meinen Traum, du lebst nur die Illusion
+Ich will Millionen, in einer deutschen Villa wohnen
+[Outro]
+Deutschland
+Guten Abend, ha!
+Auf Wiedersehen
+Das war erst der Anfang, Man
+Oh, Bushido
 -RapGeniusDeutschland!</t>
         </is>
       </c>
@@ -1001,9 +1691,59 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[Strophe I - King Ali:]Berlin ist unsre Stadt, jetzt kommn' wirDer ganze Rest, explodiertAlles ist gut, wir haben Soldaten rekrutiertDu hast Angst, dass was passiert, komm zu uns um acht nach vierNeun nach vier, abserviert, zerreiß dich wie ein Blatt PapierAlle Leute wissen es: Ali ist der King! (YEAH)Wir brauchen nicht zu reden, denn wir schlagen mit dem RingWer von euch Kindern kriegt schlechte Träume wegen uns?Alle Hände hoch, ihr hängt an den Bäumen wegen unsZwei Mann, vier Fäuste, die Armee ist bereitEine Schelle an den Kopf und alles dreht sich im KreisGanz Schöneberg kommt ab jetzt nach Hause zu euchWeil ihr Schwuchteln seid jeden Spast da draußen enttäuschtDie Leute brauchen was neues, etwas neues von mirScheiß auf dich, all die anderen und die Leute von dirWer ist gemein wie 10? Ich bin gemein wie 100Und gemeinsam ficken wir dein' ganzen Bunker[Refrain 2x]Guck uns an, wir stehen wie ein Mann hierJeden Tag, jedes Jahr, ein Leben lang, wirAtmen ein, wir – atmen ausUnd pusten dich in den Wind wie ein Kartenhaus, yeah[2x]
-[Strophe II - Bushido:]Bitte, bitte gib mir ein Mic, ich rette die WeltGib mir nen Stift, guck mir zu, guck wie der Junge in hältEgal was passiert, egal wie sehr sich Deutschland verstecktEgal wie sehr ihr ihn hasst, hört hin, der Junge er rappt – er rapptRappt über all das schlechte in ihmIhr könnts nich glauben, guckt ihn an, so schmeckt das echte BerlinEchtes Benzin, mein Leben schmeckt nach schwarzem BetonIch krieg nich genug, und mach morgen noch nen krasseren SongWarte bis, warte bitte bis SeptemberIch bring mein Album raus und mach dich zu ner Bitch in PampersIch bin etwas – härter als der Rest von euchIn meinem Viertel gibt es keinen mit nem Text auf deutschDu hängst am Kreuz – ich häng mit dem King aus BerlinDem King aus Berlin, ich bin aus BerlinGuck nach links, guck ihn an, er ist der König von DeutschlandSpecter, du kannst nix außer blöd in nem Golf fahrn[Refrain 2x][Refrain:]Guck uns an, wir stehen wie ein Mann hierJeden Tag, jedes Jahr, ein Leben lang, wirAtmen ein, wir – atmen ausUnd pusten dich in den Wind wie ein Kartenhaus, yeah[Scratches]
-[Refrain 2x]Guck uns an, wir stehen wie ein Mann hierJeden Tag, jedes Jahr, ein Leben lang, wirAtmen ein, wir – atmen ausUnd pusten dich in den Wind wie ein Kartenhaus, yeah</t>
+          <t>[Strophe I - King Ali:]
+Berlin ist unsre Stadt, jetzt kommn' wir
+Der ganze Rest, explodiert
+Alles ist gut, wir haben Soldaten rekrutiert
+Du hast Angst, dass was passiert, komm zu uns um acht nach vier
+Neun nach vier, abserviert, zerreiß dich wie ein Blatt Papier
+Alle Leute wissen es: Ali ist der King! (YEAH)
+Wir brauchen nicht zu reden, denn wir schlagen mit dem Ring
+Wer von euch Kindern kriegt schlechte Träume wegen uns?
+Alle Hände hoch, ihr hängt an den Bäumen wegen uns
+Zwei Mann, vier Fäuste, die Armee ist bereit
+Eine Schelle an den Kopf und alles dreht sich im Kreis
+Ganz Schöneberg kommt ab jetzt nach Hause zu euch
+Weil ihr Schwuchteln seid jeden Spast da draußen enttäuscht
+Die Leute brauchen was neues, etwas neues von mir
+Scheiß auf dich, all die anderen und die Leute von dir
+Wer ist gemein wie 10?Ich bin gemein wie 100
+Und gemeinsam ficken wir dein' ganzen Bunker
+[Refrain 2x]
+Guck uns an, wir stehen wie ein Mann hier
+Jeden Tag, jedes Jahr, ein Leben lang, wir
+Atmen ein, wir – atmen aus
+Und pusten dich in den Wind wie ein Kartenhaus, yeah
+[2x]
+[Strophe II - Bushido:]
+Bitte, bitte gib mir ein Mic, ich rette die Welt
+Gib mir nen Stift, guck mir zu, guck wie der Junge in hält
+Egal was passiert, egal wie sehr sich Deutschland versteckt
+Egal wie sehr ihr ihn hasst, hört hin, der Junge er rappt – er rappt
+Rappt über all das schlechte in ihm
+Ihr könnts nich glauben, guckt ihn an, so schmeckt das echte Berlin
+Echtes Benzin, mein Leben schmeckt nach schwarzem Beton
+Ich krieg nich genug, und mach morgen noch nen krasseren Song
+Warte bis, warte bitte bis September
+Ich bring mein Album raus und mach dich zu ner Bitch in Pampers
+Ich bin etwas – härter als der Rest von euch
+In meinem Viertel gibt es keinen mit nem Text auf deutsch
+Du hängst am Kreuz – ich häng mit dem King aus Berlin
+Dem King aus Berlin, ich bin aus Berlin
+Guck nach links, guck ihn an, er ist der König von Deutschland
+Specter, du kannst nix außer blöd in nem Golf fahrn
+[Refrain 2x]
+[Refrain:]
+Guck uns an, wir stehen wie ein Mann hier
+Jeden Tag, jedes Jahr, ein Leben lang, wir
+Atmen ein, wir – atmen aus
+Und pusten dich in den Wind wie ein Kartenhaus, yeah
+[Scratches]
+[Refrain 2x]
+Guck uns an, wir stehen wie ein Mann hier
+Jeden Tag, jedes Jahr, ein Leben lang, wir
+Atmen ein, wir – atmen aus
+Und pusten dich in den Wind wie ein Kartenhaus, yeah</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1055,8 +1795,58 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Strophe I:]Merk dir meinen Blick denn ich red nicht mehrNie wieder ein Wort, es geht nicht mehrAlles was uns bleibt ist ein Haufen Scherben tausend ScherbenWas soll aus mir da draußen werden?Ihr habt nie geglaubt dass er's alleine schafftDreht euch um jetzt bin ich der der's alleine machtGib mir eine Nacht, ich bin mir sicher dass es klapptAuch ohne euch drei treff' ich sicher noch den TaktIch bin frei, bitte macht was ihr wolltIch mach aus einem Blatt Papier ein Platte aus GoldIhr sagt zu mir es ist schlecht wie du bistUnd dem Rest erzählt ihr dann er ist schlecht für das BizIhr könnt mir glauben ich will nie wieder ins ClubhausMama weiß ihr Junge will nie wieder ausm Hood rausIch weiß warum sich keiner in mich verlieben kannMein Fehler ist, dass mich keiner verbiegen kannWas zur Hölle glaubt ihr was ihr seid?Ihr seid verantwortlich dafür, dass ich das hier schreib'Dass ich das hier schreib' denn ich muss das jetzt hier tunDenn für mich gibt es jetzt nur noch Knast oder Ruhm[Refrain:]Ich brauch ein wenig Zeit für michEin Blatt eine Idee die die Zeilen trifftNimm meinen Stift schreib den Text wie ichIch kanns dir ansehen denn du wärst gern jetzt wie ichJetzt wie ich weil alles was ich aufschreibe stimmtIhr habt keine Fans mehr, weil es auch meine sindGuck ich brauch' keinen Wind ich hab' hier meinen PlatzUnd ich schreibe wie ein Kranker auf Papier meinen Satz
-Ich hab' mich so sehr auf das Label verlassenUnd nach zwei Jahren gemerkt ich muss das Label verlassenIhr fragt euch wie schafft er's nur so zu seinIch schaff' es immer wieder für euch so zu rhymenSo wie kein anderer, ich mach Rap wieder, wieder hartIch bin so wie kein andererIch will die Bretter die die Welt bedeutenDenn ab jetzt schreib' ich die Bretter die viel Geld bedeutenHomie, ich bin so unendlich selbstbewusstIhr könnt mir nichts erzählen guck ich habs selbst gewusstWeiter im TaktIhr habt nix mehr zu tunHört die Kids wie sie buhnDenn ihr habt leider verkacktKeine Angst ich mach's mit GefühlIch hab keine Angst hab kein MitgefühlIch bin so froh die Zeit ist endlich vorbeiEndlich vorbei ich bin endlich so freiOh mein Gott ich fühl mich wie neugebornIch verabschiede mich und mach's wieder von vornIch bin kein Aggro Berliner[Refrain]</t>
+          <t>[Strophe I:]
+Merk dir meinen Blick denn ich red nicht mehr
+Nie wieder ein Wort, es geht nicht mehr
+Alles was uns bleibt ist ein Haufen Scherben tausend Scherben
+Was soll aus mir da draußen werden?
+Ihr habt nie geglaubt dass er's alleine schafft
+Dreht euch um jetzt bin ich der der's alleine macht
+Gib mir eine Nacht, ich bin mir sicher dass es klappt
+Auch ohne euch drei treff' ich sicher noch den Takt
+Ich bin frei, bitte macht was ihr wollt
+Ich mach aus einem Blatt Papier ein Platte aus Gold
+Ihr sagt zu mir es ist schlecht wie du bist
+Und dem Rest erzählt ihr dann er ist schlecht für das Biz
+Ihr könnt mir glauben ich will nie wieder ins Clubhaus
+Mama weiß ihr Junge will nie wieder ausm Hood raus
+Ich weiß warum sich keiner in mich verlieben kann
+Mein Fehler ist, dass mich keiner verbiegen kann
+Was zur Hölle glaubt ihr was ihr seid?
+Ihr seid verantwortlich dafür, dass ich das hier schreib'
+Dass ich das hier schreib' denn ich muss das jetzt hier tun
+Denn für mich gibt es jetzt nur noch Knast oder Ruhm
+[Refrain:]
+Ich brauch ein wenig Zeit für mich
+Ein Blatt eine Idee die die Zeilen trifft
+Nimm meinen Stift schreib den Text wie ich
+Ich kanns dir ansehen denn du wärst gern jetzt wie ich
+Jetzt wie ich weil alles was ich aufschreibe stimmt
+Ihr habt keine Fans mehr, weil es auch meine sind
+Guck ich brauch' keinen Wind ich hab' hier meinen Platz
+Und ich schreibe wie ein Kranker auf Papier meinen Satz
+Ich hab' mich so sehr auf das Label verlassen
+Und nach zwei Jahren gemerkt ich muss das Label verlassen
+Ihr fragt euch wie schafft er's nur so zu sein
+Ich schaff' es immer wieder für euch so zu rhymen
+So wie kein anderer, ich mach Rap wieder, wieder hart
+Ich bin so wie kein anderer
+Ich will die Bretter die die Welt bedeuten
+Denn ab jetzt schreib' ich die Bretter die viel Geld bedeuten
+Homie, ich bin so unendlich selbstbewusst
+Ihr könnt mir nichts erzählen guck ich habs selbst gewusst
+Weiter im Takt
+Ihr habt nix mehr zu tun
+Hört die Kids wie sie buhn
+Denn ihr habt leider verkackt
+Keine Angst ich mach's mit Gefühl
+Ich hab keine Angst hab kein Mitgefühl
+Ich bin so froh die Zeit ist endlich vorbei
+Endlich vorbei ich bin endlich so frei
+Oh mein Gott ich fühl mich wie neugeborn
+Ich verabschiede mich und mach's wieder von vorn
+Ich bin kein Aggro Berliner
+[Refrain]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1108,10 +1898,99 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Hook: Bushido &amp; Baba Saad]Denn wenn wir kommen, gibt es Wodka-OWenn wir kommen, bist du Opfer totWenn wir kommen, ist die Party vorbeiDenn wenn wir kommen, gibt's 'ne MassenschlägereiJetzt gibt es Wodka-OWenn wir kommen, jetzt bist du Opfer totWenn wir kommen, jetzt ist die Party vorbeiDenn wenn wir kommen, gibt's 'ne Massenschlägerei[Part 1: Bushido &amp; Baba Saad]Was für'n Gefühl, mich in der Juice zu seh'nIch brauch' nur ein Blatt Papier, um in der Juice zu steh'nIhr schwulen Zehn, wer kommt mit den Kids nicht klarUnd Gülcan hat ihn eingeladen, weil er witzig warMit vierzig Bars fick' ich dein'n KulturvereinDu weißt nicht, wie es ist, mit uns zwei auf Tour zu seinDie Huren schrei'n: „Er ist ja so attraktiv!“Und jeder weiß, deine Schwester war am Strand aktivDu Transvestit, jetzt weißt du, was Action istIch bin jetzt da, der Typ, der auf die Backspin pisstDie letzte Bitch wurde von uns zwei gepumptGuck, deine Mama, sie hält Händchen mit dreizehn JungsDreizehn Jungs einer davon Hamburgs FinestEr signt die Headliner und zeigt, dass Hamburg scheiße istProst, mein Freund, ich schick' euch eine Flasche umsonstIch hasse dich, mein Team hat deine Mutter gebumst
-[Hook: Bushido &amp; Baba Saad]Denn wenn wir kommen, gibt es Wodka-OWenn wir kommen, bist du Opfer totWenn wir kommen, ist die Party vorbeiDenn wenn wir kommen, gibt's 'ne MassenschlägereiJetzt gibt es Wodka-OWenn wir kommen, jetzt bist du Opfer totWenn wir kommen, jetzt ist die Party vorbeiDenn wenn wir kommen, gibt's 'ne Massenschlägerei[Part 2: Bushido &amp; Baba Saad]Du hast verkackt, weil du genau wie deine Eltern bistDu hast verkackt, geh und sign jetzt bei Samy DeluxeIch kenn' dich nich', ihr Kinder wollt ein Liebeslied?Ich bin ein G und ein G war noch nie verliebtDu warst noch nie im Krieg, ich sage: „Herzlich Willkomm'n!“Du bist 'ne Nutte und 'ne Nutte kann mein Herz nicht bekomm'nNur ein Vers aus Beton und du klappst zusamm'nWir sind nicht so wie ihr, bei uns beiden klappt's zusamm'nSieh uns an, Electro-Ghetto-Rap mit BlitzschlagElectro Ghetto,  Ersguterjunge mit SaadWas er euch Kids sagt, müsst ihr ausführ'nDann kann ich deine Mama im 7er ausführ'nDu kriegst kein hoch, du bist ein SchlappschwanzGuck mir zu, wie ich auf Ibiza abtanz'Ich bin ein V.I.P., ihr seid nur Gs auf deutschIch bin jetzt bei Universal und ich schieß' auf euch
-[Hook: Bushido &amp; Baba Saad]Denn wenn wir kommen, gibt es Wodka-OWenn wir kommen, bist du Opfer totWenn wir kommen, ist die Party vorbeiDenn wenn wir kommen, gibt's 'ne MassenschlägereiJetzt gibt es Wodka-OWenn wir kommen, jetzt bist du Opfer totWenn wir kommen, jetzt ist die Party vorbeiDenn wenn wir kommen, gibt's 'ne Massenschlägerei[Part 3: Bushido &amp; Baba Saad]Du fühlst dich fremd in deinem eigenem LandVon allen deinen Lieblingsrappern ist keiner ein MannIch komm' zu spät bei zehn Schlampen wie die Deutsche BahnUnd Blumentopf die zwei, das können die Deutschen habenIch bums' das Label, was du hinter deinem Rücken hastIch bin der Grund, warum du morgen ein paar Krücken hastDu bist ein Dorfkind, du denkst, du hast Kool die GangIch komm' mit Saad, yo, ich fick' wie ein HooliganIch bin ein Ausländer keiner von euch deutschen RappernSonny Black, Baba Saad, welche deutsche Crew is' besser?Ich bin ein Star, doch du siehst nie Begleiter mit mirWeil außer Groupies, die blöd rumsteh'n, nix weiter passiertUnd leider verliert mindestens die Hälfte von euchWir sind ein Phänomen, die zwei Araber auf deutschIch kenn' die zwei krassen Typen, die jetzt gegen dich sindDeine Freundin sagt, in deinem Arsch war'n Penisse drin
-[Hook: Bushido &amp; Baba Saad]Denn wenn wir kommen, gibt es Wodka-OWenn wir kommen, bist du Opfer totWenn wir kommen, ist die Party vorbeiDenn wenn wir kommen, gibt's 'ne MassenschlägereiJetzt gibt es Wodka-OWenn wir kommen, jetzt bist du Opfer totWenn wir kommen, jetzt ist die Party vorbeiDenn wenn wir kommen, gibt's 'ne Massenschlägerei[Outro: Bushido]Wenn wir kommenWenn wir kommenDenn wenn wir kommen gibt's 'ne MassenschlägereiWenn wir kommenWenn wir kommenDenn wenn wir kommen gibt's 'ne Massenschlägerei</t>
+          <t>[Hook: Bushido &amp;Baba Saad]
+Denn wenn wir kommen, gibt es Wodka-O
+Wenn wir kommen,bist du Opfer tot
+Wenn wir kommen,ist die Party vorbei
+Denn wenn wir kommen, gibt's 'ne Massenschlägerei
+Jetzt gibt es Wodka-O
+Wenn wir kommen,jetzt bist du Opfer tot
+Wenn wir kommen,jetzt ist die Party vorbei
+Denn wenn wir kommen, gibt's 'ne Massenschlägerei
+[Part 1: Bushido &amp;Baba Saad]
+Was für'n Gefühl, mich in der Juice zu seh'n
+Ich brauch' nur ein Blatt Papier, um in der Juice zu steh'n
+Ihr schwulen Zehn, wer kommt mit den Kids nicht klar
+Und Gülcan hat ihn eingeladen, weil er witzig war
+Mit vierzig Bars fick' ich dein'n Kulturverein
+Du weißt nicht, wie es ist, mit uns zwei auf Tour zu sein
+Die Huren schrei'n:„Er ist ja so attraktiv!“
+Und jeder weiß, deine Schwester war am Strand aktiv
+Du Transvestit, jetzt weißt du, was Action ist
+Ich bin jetzt da, der Typ, der auf die Backspin pisst
+Die letzte Bitchwurde von uns zwei gepumpt
+Guck, deine Mama, sie hält Händchen mit dreizehn Jungs
+Dreizehn Jungs einer davon Hamburgs Finest
+Er signt die Headliner und zeigt, dass Hamburg scheiße ist
+Prost, mein Freund,ich schick' euch eine Flasche umsonst
+Ich hasse dich,mein Teamhat deine Mutter gebumst
+[Hook: Bushido &amp;Baba Saad]
+Denn wenn wir kommen, gibt es Wodka-O
+Wenn wir kommen,bist du Opfer tot
+Wenn wir kommen,ist die Party vorbei
+Denn wenn wir kommen, gibt's 'ne Massenschlägerei
+Jetzt gibt es Wodka-O
+Wenn wir kommen,jetzt bist du Opfer tot
+Wenn wir kommen,jetzt ist die Party vorbei
+Denn wenn wir kommen, gibt's 'ne Massenschlägerei
+[Part 2: Bushido &amp;Baba Saad]
+Du hast verkackt, weil du genau wie deine Eltern bist
+Du hast verkackt, geh und sign jetzt bei Samy Deluxe
+Ich kenn' dich nich',ihr Kinder wollt ein Liebeslied?
+Ich bin ein G und ein G war noch nie verliebt
+Du warst noch nie im Krieg, ich sage: „Herzlich Willkomm'n!“
+Du bist 'ne Nutteund 'ne Nutte kann mein Herz nicht bekomm'n
+Nur ein Vers aus Betonund du klappst zusamm'n
+Wir sind nicht so wie ihr,bei uns beiden klappt's zusamm'n
+Sieh uns an, Electro-Ghetto-Rap mit Blitzschlag
+Electro Ghetto,Ersguterjunge mit Saad
+Was er euch Kids sagt, müsst ihr ausführ'n
+Dann kann ich deine Mama im 7er ausführ'n
+Du kriegst kein hoch, du bist ein Schlappschwanz
+Guck mir zu, wie ich auf Ibiza abtanz'
+Ich bin ein V.I.P.,ihr seid nur Gs auf deutsch
+Ich bin jetzt bei Universal und ich schieß' auf euch
+[Hook: Bushido &amp; Baba Saad]
+Denn wenn wir kommen, gibt es Wodka-O
+Wenn wir kommen, bist du Opfer tot
+Wenn wir kommen, ist die Party vorbei
+Denn wenn wir kommen, gibt's 'ne Massenschlägerei
+Jetzt gibt es Wodka-O
+Wenn wir kommen, jetzt bist du Opfer tot
+Wenn wir kommen, jetzt ist die Party vorbei
+Denn wenn wir kommen, gibt's 'ne Massenschlägerei
+[Part 3: Bushido &amp; Baba Saad]
+Du fühlst dich fremd in deinem eigenem Land
+Von allen deinen Lieblingsrappern ist keiner ein Mann
+Ich komm' zu spät bei zehn Schlampen wie die Deutsche Bahn
+Und Blumentopf die zwei, das können die Deutschen haben
+Ich bums' das Label, was du hinter deinem Rücken hast
+Ich bin der Grund, warum du morgen ein paar Krücken hast
+Du bist ein Dorfkind, du denkst, du hast Kool die Gang
+Ich komm' mit Saad, yo, ich fick' wie ein Hooligan
+Ich bin ein Ausländer keiner von euch deutschen RappernSonny Black, Baba Saad, welche deutsche Crew is' besser?
+Ich bin ein Star, doch du siehst nie Begleiter mit mir
+Weil außer Groupies, die blöd rumsteh'n, nix weiter passiert
+Und leider verliert mindestens die Hälfte von euch
+Wir sind ein Phänomen, die zwei Araber auf deutsch
+Ich kenn' die zwei krassen Typen, die jetzt gegen dich sind
+Deine Freundin sagt, in deinem Arsch war'n Penisse drin
+[Hook: Bushido &amp;Baba Saad]
+Denn wenn wir kommen, gibt es Wodka-O
+Wenn wir kommen,bist du Opfer tot
+Wenn wir kommen,ist die Party vorbei
+Denn wenn wir kommen, gibt's 'ne Massenschlägerei
+Jetzt gibt es Wodka-O
+Wenn wir kommen,jetzt bist du Opfer tot
+Wenn wir kommen,jetzt ist die Party vorbei
+Denn wenn wir kommen, gibt's 'ne Massenschlägerei
+[Outro: Bushido]
+Wenn wir kommen
+Wenn wir kommen
+Denn wenn wir kommen gibt's 'ne Massenschlägerei
+Wenn wir kommen
+Wenn wir kommen
+Denn wenn wir kommen gibt's 'ne Massenschlägerei</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1163,8 +2042,57 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Strophe I - Bushido:]Die Leute rennen weg, als wenn mein Atem Feuer wär'Mein Atem Feuer wär', hier nimm mein Handy, ruf die FeuerwehrIch komm' nich' klar, ich hab' Benzin in den VenenIch spiel' alleine, weil dir jeder sagt komm' spiel nicht mit demIch spiel' nicht mit dir, nie wieder mit irgendwemIhr könnt auf meinem Album das Logo von Urban sehnGuck, ich bin Tunesier, will von unten nach obenIch bin Kanake, deswegen fragen mich Kunden nach DrogenSie gucken nach oben, ich brauch' nur eine Hook und 2 StrophenIch spucke Feuerbälle spuck sie auf euch dummen IdiotenPunkt, du kleiner Junge hast dich so überschätztDu schreibst in der Pressemitteilung auf, worüber du rappstWie kommt's? Bist du nicht auch einer mit Feuer in dirDas Feuer in mir zeigt euch, das ist nicht mehr euer RevierWas für ein Gefühl, ich schlaf' in 'nem Bett aus FeuerUnd schreibe jedem meiner Feinde ein Rap aus Feuer, Booom[Refrain - Boss Bitch Berlin:]Du gehst auf in Flammen Homie, du Bitch brennst lichterlohDie die nach uns kommen rennen in den TodWir kennen keine Gnade Homie, du Punk frisst schwarzen SandSpar' dir deine Frage Homie denn wir drei zerstreuen deine Asche im ganzen Land[Strophe II - Azad:]Renn' Homie, ich spucke Napalm und lass' alles brennenLeg' euch Schmocks in Schutt und Asche, ihr seid keine KonkurrenzMein Flow ist Feuer und ich' hab Nitro in mirNutte kapier du verlierst so wie Sido am Mikro, yo der Hero ist hierB-O-Z-Z dies ist kein Spass JungeB-O-Z-Z fickt jetzt deinen ArschDu bist kein Rapper du bist Opfer am MicIch schick' dich Depp auf die Bretter, zerschmetter dich Vogel und boxe dich HeimHörst du wie ich schieße ich bin anormalBooom, ich schwör' du kriegst 'n Hieb und es wird asozialWir ziehn' eine Spur aus Feuer hinter uns herIhr Kinder kommt her die Kings sind jetzt hier und bringen Killerdinger zu dirFuck mich nicht ab ich komm' und fackel dich abLaufe bei dir ein, spuck 'ne line, verlasse dich dannIm Flammenmeer meiner Zeilen des TodesGeh nieder in die Knie du Verlierer, jetzt weißt du was los is, BAM
-[Refrain][Strophe III - Bushido:]Schau' uns an wir sind wie Wolken aus FeuerKomm' nimm mich in den Arm ich leuchte wie goldenes FeuerVerbrenne das Land, ich bin wie ein Traum für die KidsSie würden uns gern anfassen doch sie trauen sich nicht[Azad:]Ich rauche euch mit den Beats und Raps, ihr Punks seid viel zu wackIhr wolltet Beef verreck, hier kommt mein Hieb und strecktDich in die Knie du Depp, ich sagte flieh, renn wegDies ist der Chief und schießt dir mies in die Fresse Junge[Refrain 3x]</t>
+          <t>[Strophe I - Bushido:]
+Die Leute rennen weg, als wenn mein Atem Feuer wär'
+Mein Atem Feuer wär', hier nimm mein Handy, ruf die Feuerwehr
+Ich komm' nich' klar, ich hab' Benzin in den Venen
+Ich spiel' alleine, weil dir jeder sagt komm' spiel nicht mit dem
+Ich spiel' nicht mit dir, nie wieder mit irgendwem
+Ihr könnt auf meinem Album das Logo von Urban sehn
+Guck, ich bin Tunesier, will von unten nach oben
+Ich bin Kanake, deswegen fragen mich Kunden nach Drogen
+Sie gucken nach oben, ich brauch' nur eine Hook und 2 Strophen
+Ich spucke Feuerbälle spuck sie auf euch dummen Idioten
+Punkt, du kleiner Junge hast dich so überschätzt
+Du schreibst in der Pressemitteilung auf, worüber du rappst
+Wie kommt's? Bist du nicht auch einer mit Feuer in dir
+Das Feuer in mir zeigt euch, das ist nicht mehr euer Revier
+Was für ein Gefühl, ich schlaf' in 'nem Bett aus Feuer
+Und schreibe jedem meiner Feinde ein Rap aus Feuer, Booom
+[Refrain - Boss Bitch Berlin:]
+Du gehst auf in Flammen Homie, du Bitch brennst lichterloh
+Die die nach uns kommen rennen in den Tod
+Wir kennen keine Gnade Homie, du Punk frisst schwarzen Sand
+Spar' dir deine Frage Homie denn wir drei zerstreuen deine Asche im ganzen Land
+[Strophe II - Azad:]
+Renn' Homie, ich spucke Napalm und lass' alles brennen
+Leg' euch Schmocks in Schutt und Asche, ihr seid keine Konkurrenz
+Mein Flow ist Feuer und ich' hab Nitro in mir
+Nutte kapier du verlierst so wie Sido am Mikro,yo der Hero ist hier
+B-O-Z-Z dies ist kein Spass Junge
+B-O-Z-Z fickt jetzt deinen Arsch
+Du bist kein Rapper du bist Opfer am Mic
+Ich schick' dich Depp auf die Bretter, zerschmetter dich Vogel und boxe dich Heim
+Hörst du wie ich schieße ich bin anormal
+Booom, ich schwör' du kriegst 'n Hieb und es wird asozial
+Wir ziehn' eine Spur aus Feuer hinter uns her
+Ihr Kinder kommt her die Kings sind jetzt hier und bringen Killerdinger zu dir
+Fuck mich nicht ab ich komm' und fackel dich ab
+Laufe bei dir ein, spuck 'ne line, verlasse dich dann
+Im Flammenmeer meiner Zeilen des Todes
+Geh nieder in die Knie du Verlierer, jetzt weißt du was los is, BAM
+[Refrain]
+[Strophe III - Bushido:]
+Schau' uns an wir sind wie Wolken aus Feuer
+Komm' nimm mich in den Arm ich leuchte wie goldenes Feuer
+Verbrenne das Land, ich bin wie ein Traum für die Kids
+Sie würden uns gern anfassen doch sie trauen sich nicht
+[Azad:]
+Ich rauche euch mit den Beats und Raps, ihr Punks seid viel zu wack
+Ihr wolltet Beef verreck, hier kommt mein Hieb und streckt
+Dich in die Knie du Depp, ich sagte flieh, renn weg
+Dies ist der Chief und schießt dir mies in die Fresse Junge
+[Refrain 3x]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1216,9 +2144,88 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[Hook: Cassandra Steen]Ich kann dir nicht erklärenWie deine Ansicht mich verletztIch schenke dir mein HerzDenn meine Hoffnung stirbt zuletzt[Part 1: Bushido]Mein Engel es tut mir so leidEs tut mir so leid, dass ich das hier jetzt schreibIch bring es jetzt kaum übers HerzDu bist nicht hier und ich schreib diesen VersSchreib diesen Vers, schreib ihn für dichLeider schreib ich diese Zeilen für dichIch hoffe, dass du mir verzeihstWenn du das hier liest, hoffe ich, dass du nicht weinstEs fällt mir so unendlich schwerIch wünschte, dass unsere Zeit unendlich wäreIch sitze hier und rieche deinen DuftMir kommen die Tränen und ich kriege keine LuftDoch ich muss weg und ich lass dich jetzt hierIch guck mich an und ich hass mich dafürIch würde dir soviel so gerne sagenIch würd wenn ich könnte die Sterne fragenWeil ich selber die Antwort nicht sehDu bist der Frühling, der Sommer, der SchneeIch hab sowas wie dich nicht verdientDu hast sowas wie mich nicht verdientLass mich los ich bete für dichAuch wenn ich dann weg bin lebe ich für dichGuck was für ein grauer TagEs macht alles Sinn, wenn man die Trauer mag
-[Hook: Cassandra Steen]Ich kann dir nicht erklärenWie deine Ansicht mich verletztIch schenke dir mein HerzDenn meine Hoffnung stirbt zuletzt[Part 2: Cassandra Steen]Liebe an sich kennt keinen VerzichtZeit bringt ans LichtOb deine Wahl richtig isIch spüre deinen HerzschlagUnter der kalten Oberfläche, die uns getrennt hältUnd egal was du jetzt sagstIch fühl die Angst vor der Schwäche, in der du langsam zusammenfällstUnd Dennoch bin ich hierGebe dir die Liebe, die draußen niemand für dich so zu bieten hatIst die klar was du riskierst?Man vermisst nur das, was man hergibt und später nicht mehr für sich hat[Hook: Cassandra Steen]Ich kann dir nicht erklärenWie deine Ansicht mich verletztIch schenke dir mein HerzDenn meine Hoffnung stirbt zuletztIch kann dir nicht erklärenWie deine Ansicht mich verletztIch schenke dir mein HerzDenn meine Hoffnung stirbt zuletzt
-[Part 3: Bushido]Es kann schon sein, doch ich kann mich nicht anderes entscheidenLange vorbei sind die SandkastenzeitenVielleicht mach ich jetzt alles falschIch spüre diese Klumpen in meinem HalsIch schluck und rede nicht mehrIch guck und seh dich nicht mehrIch lass nichts mehr an mich heranSchenke dein Leben einem anderen MannSteh auf und geh ohne michIch frag irgendwann den Wind wo du bistWenn du mich dann flüstern hörstDenk an mich und ich küss dein HerzDu warst immer mein KerzenlichtIch gehe wenn es am schwersten istSei nicht traurig, du kannst nichts dafürAuch wenn es schwer ist, die Angst ist die Tür[Hook: Cassandra Steen]Ich kann dir nicht erklärenWie deine Ansicht mich verletztIch schenke dir mein HerzDenn meine Hoffnung stirbt zuletztIch kann dir nicht erklärenWie deine Ansicht mich verletztIch schenke dir mein HerzDenn meine Hoffnung stirbt zuletzt</t>
+          <t>[Hook: Cassandra Steen]
+Ich kann dir nicht erklären
+Wie deine Ansicht mich verletzt
+Ich schenke dir mein Herz
+Denn meine Hoffnung stirbt zuletzt
+[Part 1: Bushido]
+Mein Engel es tut mir so leid
+Es tut mir so leid, dass ich das hier jetzt schreib
+Ich bring es jetzt kaum übers Herz
+Du bist nicht hier und ich schreib diesen Vers
+Schreib diesen Vers, schreib ihn für dich
+Leider schreib ich diese Zeilen für dich
+Ich hoffe, dass du mir verzeihst
+Wenn du das hier liest, hoffe ich, dass du nicht weinst
+Es fällt mir so unendlich schwer
+Ich wünschte, dass unsere Zeit unendlich wäre
+Ich sitze hier und rieche deinen Duft
+Mir kommen die Tränen und ich kriege keine Luft
+Doch ich muss weg und ich lass dich jetzt hier
+Ich guck mich an und ich hass mich dafür
+Ich würde dir soviel so gerne sagen
+Ich würd wenn ich könnte die Sterne fragen
+Weil ich selber die Antwort nicht seh
+Du bist der Frühling, der Sommer, der Schnee
+Ich hab sowas wie dich nicht verdient
+Du hast sowas wie mich nicht verdient
+Lass mich los ich bete für dich
+Auch wenn ich dann weg bin lebe ich für dich
+Guck was für ein grauer Tag
+Es macht alles Sinn, wenn man die Trauer mag
+[Hook: Cassandra Steen]
+Ich kann dir nicht erklären
+Wie deine Ansicht mich verletzt
+Ich schenke dir mein Herz
+Denn meine Hoffnung stirbt zuletzt
+[Part 2: Cassandra Steen]
+Liebe an sich kennt keinen Verzicht
+Zeit bringt ans Licht
+Ob deine Wahl richtig is
+Ich spüre deinen Herzschlag
+Unter der kalten Oberfläche, die uns getrennt hält
+Und egal was du jetzt sagst
+Ich fühl die Angst vor der Schwäche, in der du langsam zusammenfällst
+Und Dennoch bin ich hier
+Gebe dir die Liebe, die draußen niemand für dich so zu bieten hat
+Ist die klar was du riskierst?
+Man vermisst nur das, was man hergibt und später nicht mehr für sich hat
+[Hook: Cassandra Steen]
+Ich kann dir nicht erklären
+Wie deine Ansicht mich verletzt
+Ich schenke dir mein Herz
+Denn meine Hoffnung stirbt zuletzt
+Ich kann dir nicht erklären
+Wie deine Ansicht mich verletzt
+Ich schenke dir mein Herz
+Denn meine Hoffnung stirbt zuletzt
+[Part 3: Bushido]
+Es kann schon sein, doch ich kann mich nicht anderes entscheiden
+Lange vorbei sind die Sandkastenzeiten
+Vielleicht mach ich jetzt alles falsch
+Ich spüre diese Klumpen in meinem Hals
+Ich schluck und rede nicht mehr
+Ich guck und seh dich nicht mehr
+Ich lass nichts mehr an mich heran
+Schenke dein Leben einem anderen Mann
+Steh auf und geh ohne mich
+Ich frag irgendwann den Wind wo du bist
+Wenn du mich dann flüstern hörst
+Denk an mich und ich küss dein Herz
+Du warst immer mein Kerzenlicht
+Ich gehe wenn es am schwersten ist
+Sei nicht traurig, du kannst nichts dafür
+Auch wenn es schwer ist, die Angst ist die Tür
+[Hook: Cassandra Steen]
+Ich kann dir nicht erklären
+Wie deine Ansicht mich verletzt
+Ich schenke dir mein Herz
+Denn meine Hoffnung stirbt zuletzt
+Ich kann dir nicht erklären
+Wie deine Ansicht mich verletzt
+Ich schenke dir mein Herz
+Denn meine Hoffnung stirbt zuletzt</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1270,8 +2277,68 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Refrain:]Ihr wartet drauf, wann bringt der Typ wieder was hartet rausIch schreib es auf und es kommt wieder was Hartes rausIch hab's gewusst das ganze Land hat mich vermisstDer Rest hat sich so sehr gewünscht, dass sich der Typ verpisstIch bin im Endeffekt der der bis zum Ende rapptDer bis zum Ende rappt und danach keine Hände clapptDu kommst nicht klar mit mir, keiner kommt klar mit mirDoch ich hab euch schon längst vergessen wie die andern' vier[Strophe I:]Ich bin so gut gelaunt ich hab' wieder nen guten SoundIch hab' von dir gehört, ich hab' gehört du machst dich gut als ClownIch geb' dir wieder was, hier hast du wieder wasIch sag' in meinen Liedern was, merk dir ich bin wieder krassGib' mir ne Woche Zeit, ich hab' mein Album aufgenommenNach einer Woche Zeit ist jetzt mein Album rausgekommenWas soll ich bloß mit dem ganzen Geld anstellenIhr könnt euch bloß wie die anderen hinten anstellenIch bin nur noch Underground, weil ich noch mit der U-Bahn fahr'Oh wie wunderbar, ich bin ein SuperstarIch bin der Superstar, der früher mal ganz unten warFrüher war auch lustig, aber nur weil ich betrunken warHeute seh' ich mich auf fast jedem Cover stehenHeute könnt ihr mich auf fast jedem Cover sehenFast jeder liest heute meine InterviewsIch bin ab jetzt jeden Monat wieder in der Juice
-[Refrain][Strophe II:]Ich seh' die deutschen Rapper jeden tag wie Fliegen sterbenWie die deutschen Kids einfach nicht zufrieden werdenIch häng' am Block rum, ich bin eure HoffnungSagt ihr findet Curse cool, wetten ihr bleibt doch dummIch schaff' es nicht, ich kann einfach keinen ernst nehmenIch schaff' es nur jeden Tag wieder ins FernsehenIch bin jetzt soweit, dass jeder andere Typ mich hasstIhr fragt euch: Wie nur hat's dieser Typ soweit geschafft?Nie wieder Arbeitsamt, ich bin jetzt ne Ich-AGIch könnte kotzen wenn ich drauen all die Stricher seh'Wenn ich fertig bin gibt es kein Happy EndIch bin Berliner und nich' bloß wieder n Wessi-TrendIch geb' euch Grund, dass sich deutscher Rap wieder lohntDass sich der alte Scheiß in Deutschland nicht wiederholtWarum sind so viele in InternetforenIch glaub', weil sie seit gestern auch im Internet wohnen[Refrain][Strophe III:]Ich wollte einfach nur aus Spaß ein bisschen Gas gebenJetzt hab ich 100.000 Fans die mir am Arsch kleben100.000 leute wollen jetzt mein Album kaufen100.000 leute fragen: Is' dein album draußen?100.000 € wenn ich nicht mein Album rausbring'Krieg ich von 100.000 Rappern die in Deutschland out sindPech gehabt 100.000 wärn' zu wenigEin Mann is' nur ein echter Mann, wenn er auch gern im Stehen pisstDie Mädchen fangen an zu weinen wenn ich beim Auftritt binIch lad mir was von Curse down wenn ich mal traurig binDenn Rest der Zeit verbring' ich damit mir was auszudenkenIch frag mich: Sind die Majors hier, um mir ein Haus zu schenken?Ich kenn' so viele Leute die auf einmal neidisch sindSoll ich euch sagen was passiert wenn ich mal 30 binDann mach' neun Jahre Rap für all die schlechten KidsHerzlich Willkommen ich bin der Typ der mit der Rechten wichst</t>
+          <t>[Refrain:]
+Ihr wartet drauf, wann bringt der Typ wieder was hartet raus
+Ich schreib es auf und es kommt wieder was Hartes raus
+Ich hab's gewusst das ganze Land hat mich vermisst
+Der Rest hat sich so sehr gewünscht, dass sich der Typ verpisst
+Ich bin im Endeffekt der der bis zum Ende rappt
+Der bis zum Ende rappt und danach keine Hände clappt
+Du kommst nicht klar mit mir, keiner kommt klar mit mir
+Doch ich hab euch schon längst vergessen wie die andern' vier
+[Strophe I:]
+Ich bin so gut gelaunt ich hab' wieder nen guten Sound
+Ich hab' von dir gehört, ich hab' gehört du machst dich gut als Clown
+Ich geb' dir wieder was, hier hast du wieder was
+Ich sag' in meinen Liedern was, merk dir ich bin wieder krass
+Gib' mir ne Woche Zeit, ich hab' mein Album aufgenommen
+Nach einer Woche Zeit ist jetzt mein Album rausgekommen
+Was soll ich bloß mit dem ganzen Geld anstellen
+Ihr könnt euch bloß wie die anderen hinten anstellen
+Ich bin nur noch Underground, weil ich noch mit der U-Bahn fahr'
+Oh wie wunderbar, ich bin ein Superstar
+Ich bin der Superstar, der früher mal ganz unten war
+Früher war auch lustig, aber nur weil ich betrunken war
+Heute seh' ich mich auf fast jedem Cover stehen
+Heute könnt ihr mich auf fast jedem Cover sehen
+Fast jeder liest heute meine Interviews
+Ich bin ab jetzt jeden Monat wieder in der Juice
+[Refrain]
+[Strophe II:]
+Ich seh' die deutschen Rapper jeden tag wie Fliegen sterben
+Wie die deutschen Kids einfach nicht zufrieden werden
+Ich häng' am Block rum, ich bin eure Hoffnung
+Sagt ihr findet Curse cool, wetten ihr bleibt doch dumm
+Ich schaff' es nicht, ich kann einfach keinen ernst nehmen
+Ich schaff' es nur jeden Tag wieder ins Fernsehen
+Ich bin jetzt soweit, dass jeder andere Typ mich hasst
+Ihr fragt euch: Wie nur hat's dieser Typ soweit geschafft?
+Nie wieder Arbeitsamt, ich bin jetzt ne Ich-AG
+Ich könnte kotzen wenn ich drauen all die Stricher seh'
+Wenn ich fertig bin gibt es kein Happy End
+Ich bin Berliner und nich' bloß wieder n Wessi-Trend
+Ich geb' euch Grund, dass sich deutscher Rap wieder lohnt
+Dass sich der alte Scheiß in Deutschland nicht wiederholt
+Warum sind so viele in Internetforen
+Ich glaub', weil sie seit gestern auch im Internet wohnen
+[Refrain]
+[Strophe III:]
+Ich wollte einfach nur aus Spaß ein bisschen Gas geben
+Jetzt hab ich 100.000 Fans die mir am Arsch kleben
+100.000 leute wollen jetzt mein Album kaufen
+100.000 leute fragen: Is' dein album draußen?
+100.000 € wenn ich nicht mein Album rausbring'
+Krieg ich von 100.000 Rappern die in Deutschland out sind
+Pech gehabt 100.000 wärn' zu wenig
+Ein Mann is' nur ein echter Mann, wenn er auch gern im Stehen pisst
+Die Mädchen fangen an zu weinen wenn ich beim Auftritt bin
+Ich lad mir was von Curse down wenn ich mal traurig bin
+Denn Rest der Zeit verbring' ich damit mir was auszudenken
+Ich frag mich: Sind die Majors hier, um mir ein Haus zu schenken?
+Ich kenn' so viele Leute die auf einmal neidisch sind
+Soll ich euch sagen was passiert wenn ich mal 30 bin
+Dann mach' neun Jahre Rap für all die schlechten Kids
+Herzlich Willkommen ich bin der Typ der mit der Rechten wichst</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1323,7 +2390,16 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yeah, FreestyleIch mach den Sound für den Hof im KnastIch bin der Grund, warum du nie deine Millionen machstIch mach den Sound, den Sound für die Dealer im ParkDenn ohne mich wird deutscher Rap schon wieder nicht hartSchon wieder ein Tag, an dem ich eure Lieder nicht magSalutiert, steht stramm, ich bin der Leader wie AMir scheißegal, ob du ein Krasser warstEs tut mir leid, Jungs, ich hab keinen Platz im ArschOh yeah</t>
+          <t>Yeah, Freestyle
+Ich mach den Sound für den Hof im Knast
+Ich bin der Grund, warum du nie deine Millionen machst
+Ich mach den Sound, den Sound für die Dealer im Park
+Denn ohne mich wird deutscher Rap schon wieder nicht hart
+Schon wieder ein Tag, an dem ich eure Lieder nicht mag
+Salutiert, steht stramm, ich bin der Leader wie A
+Mir scheißegal, ob du ein Krasser warst
+Es tut mir leid, Jungs, ich hab keinen Platz im Arsch
+Oh yeah</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1375,10 +2451,92 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[Hook]Was für'n Gefühl mich in der Juice zu seh'nIch brauch' nur ein Blatt Papier um in der Juice zu steh'nIch wollte immer schon zu Viva TV (MTV)Und nie wieder wieder in BauNie wieder auch nur eine Minute in EinzelhaftNie wieder arbeiten geh'n von eins bis achtIch mach jetzt von eins bis acht was keiner schafftIch werd' vom Heimkind zum Rapstar in einer Nacht[Part I]Mit vier Jahren wollte ich schon hoch hinausIch hab' mir Steine geklaut für meinen Hof im HausIch war der erste mit nem Ständer im SandkastenDer erste der sein Geld gemacht hat mit PfandflaschenMit meinem Dreirad stand ich vor der EinfahrtDamals schon jeden Tag von Samstag bis FreitagIch wollte Murmeln spielen und nicht in den KindergartenWo alle Eltern draußen dann auf ihre Kinder wartenWenn ich nicht rauskam wusste ich, dass alle Kinder wartenIch musste laufen lernen ich hatte keinen KinderwagenDer kleine Penner der den ganzen Tag nur Scheiße bautAlle Mädchen die ich kannte sahen scheiße ausIch hatte Spielzeug-Autos von MatchboxDer wegen Spielzeug-Autos jeden wegboxtIch bin damals jeden Sonntag zum FlohmarktIch wusste, wenn ich groß bin mach' ich meinen Flow hart
-[Hook]Was für'n Gefühl mich in der Juice zu seh'nIch brauch' nur ein Blatt Papier um in der Juice zu steh'nIch wollte immer schon zu Viva TV (MTV)Und nie wieder wieder in BauNie wieder auch nur eine Minute in EinzelhaftNie wieder arbeiten gehen von eins bis achtIch mach jetzt von eins bis acht was keiner schafftIch werd' vom Heimkind zum Rapstar in einer Nacht[Part 2]Mit dreizehn wollte ich schon nichts mehr einsehenIch war dreizehn und das war mein LebenIch hab' es locker in die Siebte geschafftIch kam locker jeden Tag erst um sieben nach achtMich hat's nicht interessiert, doch nicht weil ich dafür zu dumm warMich hat es nicht interessiert, weil ich zu jung warWer braucht Latein, Chemie oder MathematikGib mir ne MPC und ich mach' dir nen BeatWenn die Lehrer dir erzählen, dass du gar nichts bistFängst du an ihnen zu glauben, dass du gar nichts bistIch hatte jeden Tag Streit mit den PädagogenDen tausend Pädagogen auf meinem Weg nach obenIch hatte keinen Bock auf all die dummen HausaufgabenMein Traum war damals schon ein Grundstück mit Haus und GartenIch musste draußen warten durfte nicht mehr reinkommenScheiß auf die Schule, ich muss jetzt ans Mic kommen
-[Hook]Was für'n Gefühl mich in der Juice zu seh'nIch brauch' nur ein Blatt Papier um in der Juice zu steh'nIch wollte immer schon zu Viva TV (MTV)Und nie wieder wieder in  BauNie wieder auch nur eine Minute in EinzelhaftNie wieder arbeiten gehen von eins bis achtIch mach jetzt von eins bis acht was keiner schafftIch werd' vom Heimkind zum Rapstar in einer Nacht[Part 3]Mit fünfundzwanzig Jahren hab ich's endlich geschafftIch wollt noch sagen, ich hab's noch nie auf Englisch gemachtYo, Mann, meine Mutter sieht das was aus mir wirdSie hat mich lieb, scheiß egal was aus mir wirdVon diesem Tag hab ich so lange geträumtAuf diesen einen Tag hab ich mich so lange gefreutIch will die Öffentlichkeit, der Typ der wöchentlich schreibtIch seh' so viele andere Rapper doch sie können nicht reimen(Auf keinen), ich seh wie hunderttausend Finger auf mich zeigenIch brauch es einfach nur mit meinem Finger aufzuschreibenEs draußen zu verteilenUnd einfach nur drauf warten das die anderen es vergeigenIch danke Gott, denn mein Traum wird wahrIch wache nachts auf und sag mir: ''Mein Traum wird wahr!''Der Traum vom Star den Traum den jeder hatJeder träumt davon weil's nicht jeder schafft
-[Hook]Was für'n Gefühl mich in der Juice zu seh'nIch brauch' nur ein Blatt Papier um in der Juice zu steh'nIch wollte immer schon zu Viva TV (MTV)Und nie wieder wieder in BauNie wieder auch nur eine Minute in EinzelhaftNie wieder arbeiten gehen von eins bis achtIch mach jetzt von eins bis acht was keiner schafftIch werd' vom Heimkind zum Rapstar in einer Nacht</t>
+          <t>[Hook]
+Was für'n Gefühl mich in der Juice zu seh'n
+Ich brauch' nur ein Blatt Papier um in der Juice zu steh'n
+Ich wollte immer schon zu Viva TV (MTV)
+Und nie wieder wieder in Bau
+Nie wieder auch nur eine Minute in Einzelhaft
+Nie wieder arbeiten geh'n von eins bis acht
+Ich mach jetzt von eins bis acht was keiner schafft
+Ich werd' vom Heimkind zum Rapstar in einer Nacht
+[Part I]
+Mit vier Jahren wollte ich schon hoch hinaus
+Ich hab' mir Steine geklaut für meinen Hof im Haus
+Ich war der erste mit nem Ständer im Sandkasten
+Der erste der sein Geld gemacht hat mit Pfandflaschen
+Mit meinem Dreirad stand ich vor der Einfahrt
+Damals schon jeden Tag von Samstag bis Freitag
+Ich wollte Murmeln spielen und nicht in den Kindergarten
+Wo alle Eltern draußen dann auf ihre Kinder warten
+Wenn ich nicht rauskam wusste ich, dass alle Kinder warten
+Ich musste laufen lernen ich hatte keinen Kinderwagen
+Der kleine Penner der den ganzen Tag nur Scheiße baut
+Alle Mädchen die ich kannte sahen scheiße aus
+Ich hatte Spielzeug-Autos von Matchbox
+Der wegen Spielzeug-Autos jeden wegboxt
+Ich bin damals jeden Sonntag zum Flohmarkt
+Ich wusste, wenn ich groß bin mach' ich meinen Flow hart
+[Hook]
+Was für'n Gefühl mich in der Juice zu seh'n
+Ich brauch' nur ein Blatt Papier um in der Juice zu steh'n
+Ich wollte immer schon zu Viva TV (MTV)
+Und nie wieder wieder in Bau
+Nie wieder auch nur eine Minute in Einzelhaft
+Nie wieder arbeiten gehen von eins bis acht
+Ich mach jetzt von eins bis acht was keiner schafft
+Ich werd' vom Heimkind zum Rapstar in einer Nacht
+[Part 2]
+Mit dreizehn wollte ich schon nichts mehr einsehen
+Ich war dreizehn und das war mein Leben
+Ich hab' es locker in die Siebte geschafft
+Ich kam locker jeden Tag erst um sieben nach acht
+Mich hat's nicht interessiert, doch nicht weil ich dafür zu dumm war
+Mich hat es nicht interessiert, weil ich zu jung war
+Wer braucht Latein, Chemie oder Mathematik
+Gib mir ne MPC und ich mach' dir nen Beat
+Wenn die Lehrer dir erzählen, dass du gar nichts bistFängst du an ihnen zu glauben, dass du gar nichts bist
+Ich hatte jeden Tag Streit mit den Pädagogen
+Den tausend Pädagogen auf meinem Weg nach oben
+Ich hatte keinen Bock auf all die dummen Hausaufgaben
+Mein Traum war damals schon ein Grundstück mit Haus und Garten
+Ich musste draußen warten durfte nicht mehr reinkommen
+Scheiß auf die Schule, ich muss jetzt ans Mic kommen
+[Hook]
+Was für'n Gefühl mich in der Juice zu seh'n
+Ich brauch' nur ein Blatt Papier um in der Juice zu steh'n
+Ich wollte immer schon zu Viva TV (MTV)
+Und nie wieder wieder in Bau
+Nie wieder auch nur eine Minute in Einzelhaft
+Nie wieder arbeiten gehen von eins bis acht
+Ich mach jetzt von eins bis acht was keiner schafft
+Ich werd' vom Heimkind zum Rapstar in einer Nacht
+[Part 3]
+Mit fünfundzwanzig Jahren hab ich's endlich geschafft
+Ich wollt noch sagen, ich hab's noch nie auf Englisch gemacht
+Yo, Mann, meine Mutter sieht das was aus mir wird
+Sie hat mich lieb, scheiß egal was aus mir wird
+Von diesem Tag hab ich so lange geträumt
+Auf diesen einen Tag hab ich mich so lange gefreut
+Ich will die Öffentlichkeit, der Typ der wöchentlich schreibt
+Ich seh' so viele andere Rapper doch sie können nicht reimen
+(Auf keinen), ich seh wie hunderttausend Finger auf mich zeigen
+Ich brauch es einfach nur mit meinem Finger aufzuschreiben
+Es draußen zu verteilen
+Und einfach nur drauf warten das die anderen es vergeigen
+Ich danke Gott, denn mein Traum wird wahr
+Ich wache nachts auf und sag mir: ''Mein Traum wird wahr!''
+Der Traum vom Star den Traum den jeder hat
+Jeder träumt davon weil's nicht jeder schafft
+[Hook]
+Was für'n Gefühl mich in der Juice zu seh'n
+Ich brauch' nur ein Blatt Papier um in der Juice zu steh'n
+Ich wollte immer schon zu Viva TV (MTV)
+Und nie wieder wieder in Bau
+Nie wieder auch nur eine Minute in Einzelhaft
+Nie wieder arbeiten gehen von eins bis acht
+Ich mach jetzt von eins bis acht was keiner schafft
+Ich werd' vom Heimkind zum Rapstar in einer Nacht</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
